--- a/public/xls_template/masterlist.xlsx
+++ b/public/xls_template/masterlist.xlsx
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -444,72 +444,72 @@
     <col min="16" max="17" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>19</v>
+    <row r="1" spans="1:17" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18.75">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="18.75">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
+    <row r="4" spans="1:17" ht="15.75">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/public/xls_template/masterlist.xlsx
+++ b/public/xls_template/masterlist.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Payroll Period</t>
   </si>
@@ -26,13 +26,16 @@
     <t>Payroll Mode</t>
   </si>
   <si>
+    <t>Department</t>
+  </si>
+  <si>
     <t>EMPLOYEE NO.</t>
   </si>
   <si>
     <t>EMPLOYEE NAME</t>
   </si>
   <si>
-    <t>POSITION </t>
+    <t>POSITION</t>
   </si>
   <si>
     <t>MONTHLY SALARY</t>
@@ -135,15 +138,21 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -151,6 +160,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -177,21 +207,53 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -209,13 +271,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q11" activeCellId="0" sqref="Q11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -243,91 +305,216 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="H6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="I6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="J6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="K6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="L6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="M6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="N6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="O6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="P6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="Q6" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="R6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="11"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/public/xls_template/masterlist.xlsx
+++ b/public/xls_template/masterlist.xlsx
@@ -494,6 +494,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -504,10 +508,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -522,7 +522,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 22" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 22" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -595,8 +595,8 @@
   </sheetPr>
   <dimension ref="A1:AM20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1167,336 +1167,336 @@
       <c r="A13" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="33"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
       <c r="S13" s="48"/>
       <c r="T13" s="48"/>
       <c r="U13" s="48"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="47"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="47"/>
-      <c r="AJ13" s="47"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="44"/>
+      <c r="AJ13" s="44"/>
       <c r="AK13" s="33"/>
-      <c r="AL13" s="33"/>
+      <c r="AL13" s="44"/>
       <c r="AM13" s="33"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
       <c r="S14" s="48"/>
       <c r="T14" s="48"/>
       <c r="U14" s="48"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="47"/>
-      <c r="AH14" s="47"/>
-      <c r="AI14" s="47"/>
-      <c r="AJ14" s="47"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="44"/>
+      <c r="AJ14" s="44"/>
       <c r="AK14" s="33"/>
-      <c r="AL14" s="33"/>
+      <c r="AL14" s="44"/>
       <c r="AM14" s="33"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="33"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="33"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
       <c r="S15" s="48"/>
       <c r="T15" s="48"/>
       <c r="U15" s="48"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="47"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="47"/>
-      <c r="AB15" s="47"/>
-      <c r="AC15" s="47"/>
-      <c r="AD15" s="47"/>
-      <c r="AE15" s="47"/>
-      <c r="AF15" s="47"/>
-      <c r="AG15" s="47"/>
-      <c r="AH15" s="47"/>
-      <c r="AI15" s="47"/>
-      <c r="AJ15" s="47"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="44"/>
+      <c r="AJ15" s="44"/>
       <c r="AK15" s="33"/>
-      <c r="AL15" s="33"/>
+      <c r="AL15" s="44"/>
       <c r="AM15" s="33"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="33"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="46"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
       <c r="S16" s="48"/>
       <c r="T16" s="48"/>
       <c r="U16" s="48"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="47"/>
-      <c r="AC16" s="47"/>
-      <c r="AD16" s="47"/>
-      <c r="AE16" s="47"/>
-      <c r="AF16" s="47"/>
-      <c r="AG16" s="47"/>
-      <c r="AH16" s="47"/>
-      <c r="AI16" s="47"/>
-      <c r="AJ16" s="47"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="44"/>
+      <c r="AI16" s="44"/>
+      <c r="AJ16" s="44"/>
       <c r="AK16" s="33"/>
-      <c r="AL16" s="33"/>
+      <c r="AL16" s="44"/>
       <c r="AM16" s="33"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="33"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="33"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
       <c r="S17" s="48"/>
       <c r="T17" s="48"/>
       <c r="U17" s="48"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="47"/>
-      <c r="AG17" s="47"/>
-      <c r="AH17" s="47"/>
-      <c r="AI17" s="47"/>
-      <c r="AJ17" s="47"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="44"/>
+      <c r="AJ17" s="44"/>
       <c r="AK17" s="33"/>
-      <c r="AL17" s="33"/>
+      <c r="AL17" s="44"/>
       <c r="AM17" s="33"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="33"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
       <c r="S18" s="48"/>
       <c r="T18" s="48"/>
       <c r="U18" s="48"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="47"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="47"/>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="47"/>
-      <c r="AJ18" s="47"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="44"/>
+      <c r="AJ18" s="44"/>
       <c r="AK18" s="33"/>
-      <c r="AL18" s="33"/>
+      <c r="AL18" s="44"/>
       <c r="AM18" s="33"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="33"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="33"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
       <c r="S19" s="48"/>
       <c r="T19" s="48"/>
       <c r="U19" s="48"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="47"/>
-      <c r="AJ19" s="47"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="44"/>
+      <c r="AI19" s="44"/>
+      <c r="AJ19" s="44"/>
       <c r="AK19" s="33"/>
-      <c r="AL19" s="33"/>
+      <c r="AL19" s="44"/>
       <c r="AM19" s="33"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="33"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="33"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
       <c r="S20" s="48"/>
       <c r="T20" s="48"/>
       <c r="U20" s="48"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="47"/>
-      <c r="AH20" s="47"/>
-      <c r="AI20" s="47"/>
-      <c r="AJ20" s="47"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="44"/>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="44"/>
+      <c r="AJ20" s="44"/>
       <c r="AK20" s="33"/>
-      <c r="AL20" s="33"/>
+      <c r="AL20" s="44"/>
       <c r="AM20" s="33"/>
     </row>
   </sheetData>

--- a/public/xls_template/masterlist.xlsx
+++ b/public/xls_template/masterlist.xlsx
@@ -168,10 +168,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\)"/>
+    <numFmt numFmtId="167" formatCode="#,##0_);\(#,##0\)"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -317,7 +318,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -447,6 +448,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -595,8 +600,8 @@
   </sheetPr>
   <dimension ref="A1:AM20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1044,34 +1049,34 @@
       <c r="I10" s="30"/>
       <c r="J10" s="31"/>
       <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
       <c r="V10" s="29"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="36"/>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="36"/>
-      <c r="AJ10" s="36"/>
-      <c r="AK10" s="37"/>
-      <c r="AL10" s="38"/>
-      <c r="AM10" s="39"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="38"/>
+      <c r="AL10" s="39"/>
+      <c r="AM10" s="40"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="23" t="s">
@@ -1082,41 +1087,41 @@
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="26"/>
-      <c r="E11" s="40"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="28"/>
       <c r="G11" s="24"/>
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
       <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
       <c r="V11" s="29"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="36"/>
-      <c r="AJ11" s="36"/>
-      <c r="AK11" s="37"/>
-      <c r="AL11" s="38"/>
-      <c r="AM11" s="39"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="38"/>
+      <c r="AL11" s="39"/>
+      <c r="AM11" s="40"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="23" t="s">
@@ -1125,379 +1130,379 @@
       <c r="B12" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="43"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="44"/>
       <c r="G12" s="24"/>
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
       <c r="V12" s="29"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="36"/>
-      <c r="AJ12" s="36"/>
-      <c r="AK12" s="37"/>
-      <c r="AL12" s="38"/>
-      <c r="AM12" s="39"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="37"/>
+      <c r="AK12" s="38"/>
+      <c r="AL12" s="39"/>
+      <c r="AM12" s="40"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="44"/>
-      <c r="AH13" s="44"/>
-      <c r="AI13" s="44"/>
-      <c r="AJ13" s="44"/>
-      <c r="AK13" s="33"/>
-      <c r="AL13" s="44"/>
-      <c r="AM13" s="33"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="45"/>
+      <c r="AK13" s="34"/>
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="34"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="44"/>
-      <c r="AC14" s="44"/>
-      <c r="AD14" s="44"/>
-      <c r="AE14" s="44"/>
-      <c r="AF14" s="44"/>
-      <c r="AG14" s="44"/>
-      <c r="AH14" s="44"/>
-      <c r="AI14" s="44"/>
-      <c r="AJ14" s="44"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="44"/>
-      <c r="AM14" s="33"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="45"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="45"/>
+      <c r="AI14" s="45"/>
+      <c r="AJ14" s="45"/>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="45"/>
+      <c r="AM14" s="34"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="44"/>
-      <c r="AC15" s="44"/>
-      <c r="AD15" s="44"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="44"/>
-      <c r="AG15" s="44"/>
-      <c r="AH15" s="44"/>
-      <c r="AI15" s="44"/>
-      <c r="AJ15" s="44"/>
-      <c r="AK15" s="33"/>
-      <c r="AL15" s="44"/>
-      <c r="AM15" s="33"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="45"/>
+      <c r="AF15" s="45"/>
+      <c r="AG15" s="45"/>
+      <c r="AH15" s="45"/>
+      <c r="AI15" s="45"/>
+      <c r="AJ15" s="45"/>
+      <c r="AK15" s="34"/>
+      <c r="AL15" s="45"/>
+      <c r="AM15" s="34"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="44"/>
-      <c r="AC16" s="44"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="44"/>
-      <c r="AF16" s="44"/>
-      <c r="AG16" s="44"/>
-      <c r="AH16" s="44"/>
-      <c r="AI16" s="44"/>
-      <c r="AJ16" s="44"/>
-      <c r="AK16" s="33"/>
-      <c r="AL16" s="44"/>
-      <c r="AM16" s="33"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="45"/>
+      <c r="AG16" s="45"/>
+      <c r="AH16" s="45"/>
+      <c r="AI16" s="45"/>
+      <c r="AJ16" s="45"/>
+      <c r="AK16" s="34"/>
+      <c r="AL16" s="45"/>
+      <c r="AM16" s="34"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="44"/>
-      <c r="AC17" s="44"/>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="44"/>
-      <c r="AF17" s="44"/>
-      <c r="AG17" s="44"/>
-      <c r="AH17" s="44"/>
-      <c r="AI17" s="44"/>
-      <c r="AJ17" s="44"/>
-      <c r="AK17" s="33"/>
-      <c r="AL17" s="44"/>
-      <c r="AM17" s="33"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="45"/>
+      <c r="AD17" s="45"/>
+      <c r="AE17" s="45"/>
+      <c r="AF17" s="45"/>
+      <c r="AG17" s="45"/>
+      <c r="AH17" s="45"/>
+      <c r="AI17" s="45"/>
+      <c r="AJ17" s="45"/>
+      <c r="AK17" s="34"/>
+      <c r="AL17" s="45"/>
+      <c r="AM17" s="34"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="44"/>
-      <c r="AC18" s="44"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="44"/>
-      <c r="AF18" s="44"/>
-      <c r="AG18" s="44"/>
-      <c r="AH18" s="44"/>
-      <c r="AI18" s="44"/>
-      <c r="AJ18" s="44"/>
-      <c r="AK18" s="33"/>
-      <c r="AL18" s="44"/>
-      <c r="AM18" s="33"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="45"/>
+      <c r="AD18" s="45"/>
+      <c r="AE18" s="45"/>
+      <c r="AF18" s="45"/>
+      <c r="AG18" s="45"/>
+      <c r="AH18" s="45"/>
+      <c r="AI18" s="45"/>
+      <c r="AJ18" s="45"/>
+      <c r="AK18" s="34"/>
+      <c r="AL18" s="45"/>
+      <c r="AM18" s="34"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="44"/>
-      <c r="AC19" s="44"/>
-      <c r="AD19" s="44"/>
-      <c r="AE19" s="44"/>
-      <c r="AF19" s="44"/>
-      <c r="AG19" s="44"/>
-      <c r="AH19" s="44"/>
-      <c r="AI19" s="44"/>
-      <c r="AJ19" s="44"/>
-      <c r="AK19" s="33"/>
-      <c r="AL19" s="44"/>
-      <c r="AM19" s="33"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="45"/>
+      <c r="AD19" s="45"/>
+      <c r="AE19" s="45"/>
+      <c r="AF19" s="45"/>
+      <c r="AG19" s="45"/>
+      <c r="AH19" s="45"/>
+      <c r="AI19" s="45"/>
+      <c r="AJ19" s="45"/>
+      <c r="AK19" s="34"/>
+      <c r="AL19" s="45"/>
+      <c r="AM19" s="34"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="44"/>
-      <c r="AF20" s="44"/>
-      <c r="AG20" s="44"/>
-      <c r="AH20" s="44"/>
-      <c r="AI20" s="44"/>
-      <c r="AJ20" s="44"/>
-      <c r="AK20" s="33"/>
-      <c r="AL20" s="44"/>
-      <c r="AM20" s="33"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="45"/>
+      <c r="AD20" s="45"/>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="45"/>
+      <c r="AH20" s="45"/>
+      <c r="AI20" s="45"/>
+      <c r="AJ20" s="45"/>
+      <c r="AK20" s="34"/>
+      <c r="AL20" s="45"/>
+      <c r="AM20" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/public/xls_template/masterlist.xlsx
+++ b/public/xls_template/masterlist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="550"/>
+    <workbookView xWindow="520" yWindow="1860" windowWidth="24780" windowHeight="13360" tabRatio="550"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE REPORT" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_);\(#,##0.00\)"/>
   </numFmts>
@@ -305,7 +307,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -316,19 +318,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -344,23 +335,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -376,30 +355,8 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -414,12 +371,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -435,6 +386,81 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -841,289 +867,292 @@
   </sheetPr>
   <dimension ref="A1:AM20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="L7" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AN22" sqref="AN22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="0" hidden="1"/>
+    <col min="3" max="3" width="8.83203125" style="5"/>
     <col min="5" max="5" width="8.83203125" style="3"/>
     <col min="6" max="6" width="8.83203125" style="4"/>
-    <col min="9" max="9" width="8.83203125" style="5"/>
-    <col min="10" max="11" width="8.83203125" style="6"/>
-    <col min="12" max="12" width="8.83203125" style="54"/>
-    <col min="13" max="13" width="8.83203125" style="6"/>
-    <col min="14" max="18" width="8.83203125" style="5"/>
-    <col min="19" max="21" width="8.83203125" style="7"/>
-    <col min="22" max="22" width="8.83203125" style="6"/>
-    <col min="23" max="27" width="0" style="6" hidden="1"/>
-    <col min="28" max="36" width="8.83203125" style="6"/>
+    <col min="8" max="8" width="8.83203125" style="42"/>
+    <col min="9" max="9" width="8.83203125" style="41"/>
+    <col min="10" max="10" width="8.83203125" style="48"/>
+    <col min="11" max="12" width="8.83203125" style="35"/>
+    <col min="13" max="13" width="8.83203125" style="5"/>
+    <col min="14" max="18" width="8.83203125" style="41"/>
+    <col min="19" max="21" width="8.83203125" style="53"/>
+    <col min="22" max="22" width="8.83203125" style="48"/>
+    <col min="23" max="27" width="0" style="5" hidden="1"/>
+    <col min="28" max="36" width="8.83203125" style="48"/>
+    <col min="37" max="38" width="8.83203125" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="15">
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1" s="50"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
       <c r="M1"/>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
       <c r="W1"/>
       <c r="X1"/>
       <c r="Y1"/>
       <c r="Z1"/>
       <c r="AA1"/>
-      <c r="AB1"/>
-      <c r="AC1"/>
-      <c r="AD1"/>
-      <c r="AE1"/>
-      <c r="AF1"/>
-      <c r="AG1"/>
-      <c r="AH1"/>
-      <c r="AI1"/>
-      <c r="AJ1"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
     </row>
     <row r="2" spans="1:39" ht="15">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="36" t="s">
         <v>1</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2" s="50"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
       <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
       <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
     </row>
     <row r="3" spans="1:39" ht="12.75" customHeight="1">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3" s="50"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
       <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
       <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
-      <c r="AD3"/>
-      <c r="AE3"/>
-      <c r="AF3"/>
-      <c r="AG3"/>
-      <c r="AH3"/>
-      <c r="AI3"/>
-      <c r="AJ3"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
     </row>
     <row r="4" spans="1:39" ht="14.25" customHeight="1">
       <c r="E4"/>
       <c r="F4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4" s="50"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
       <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4"/>
-      <c r="AF4"/>
-      <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
-      <c r="AJ4"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
     </row>
     <row r="5" spans="1:39">
       <c r="E5"/>
       <c r="F5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5" s="50"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
       <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
-      <c r="AE5"/>
-      <c r="AF5"/>
-      <c r="AG5"/>
-      <c r="AH5"/>
-      <c r="AI5"/>
-      <c r="AJ5"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="37"/>
     </row>
     <row r="6" spans="1:39">
       <c r="E6"/>
       <c r="F6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6" s="50"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
       <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
       <c r="W6"/>
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6"/>
       <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-      <c r="AE6"/>
-      <c r="AF6"/>
-      <c r="AG6"/>
-      <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
     </row>
     <row r="7" spans="1:39" ht="15">
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="36" t="s">
         <v>3</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7" s="50"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
       <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
       <c r="W7"/>
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7"/>
       <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
-      <c r="AD7"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="10"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="59"/>
+      <c r="AH7" s="59"/>
+      <c r="AI7" s="59"/>
+      <c r="AJ7" s="59"/>
+      <c r="AK7" s="60"/>
     </row>
     <row r="8" spans="1:39" ht="12.75" customHeight="1">
       <c r="E8"/>
       <c r="F8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8" s="50"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
       <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
       <c r="P8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8"/>
+      <c r="S8" s="37"/>
       <c r="T8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
       <c r="AB8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1136,596 +1165,596 @@
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
+      <c r="AL8" s="61"/>
+      <c r="AM8" s="7"/>
     </row>
     <row r="9" spans="1:39" ht="24" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="51" t="s">
+      <c r="L9" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="N9" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="O9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="P9" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="17" t="s">
+      <c r="Q9" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="17" t="s">
+      <c r="R9" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="17" t="s">
+      <c r="S9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="T9" s="19" t="s">
+      <c r="T9" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="U9" s="19" t="s">
+      <c r="U9" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="V9" s="19" t="s">
+      <c r="V9" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="20" t="s">
+      <c r="W9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="X9" s="20" t="s">
+      <c r="X9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Y9" s="20" t="s">
+      <c r="Y9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Z9" s="20" t="s">
+      <c r="Z9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AA9" s="20" t="s">
+      <c r="AA9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AB9" s="20" t="s">
+      <c r="AB9" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="AC9" s="20" t="s">
+      <c r="AC9" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="AD9" s="21" t="s">
+      <c r="AD9" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="AE9" s="21" t="s">
+      <c r="AE9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="AF9" s="20" t="s">
+      <c r="AF9" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AG9" s="20" t="s">
+      <c r="AG9" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="AH9" s="21" t="s">
+      <c r="AH9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="AI9" s="20" t="s">
+      <c r="AI9" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AJ9" s="20" t="s">
+      <c r="AJ9" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="AK9" s="21" t="s">
+      <c r="AK9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="AL9" s="22" t="s">
+      <c r="AL9" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="AM9" s="23" t="s">
+      <c r="AM9" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="46"/>
       <c r="K10" s="33"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="37"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="37"/>
-      <c r="AH10" s="37"/>
-      <c r="AI10" s="37"/>
-      <c r="AJ10" s="37"/>
-      <c r="AK10" s="38"/>
-      <c r="AL10" s="39"/>
-      <c r="AM10" s="40"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="57"/>
+      <c r="AH10" s="57"/>
+      <c r="AI10" s="57"/>
+      <c r="AJ10" s="57"/>
+      <c r="AK10" s="63"/>
+      <c r="AL10" s="57"/>
+      <c r="AM10" s="23"/>
     </row>
     <row r="11" spans="1:39">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="32"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="46"/>
       <c r="K11" s="33"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="37"/>
-      <c r="AG11" s="37"/>
-      <c r="AH11" s="37"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="37"/>
-      <c r="AK11" s="38"/>
-      <c r="AL11" s="39"/>
-      <c r="AM11" s="40"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="57"/>
+      <c r="AI11" s="57"/>
+      <c r="AJ11" s="57"/>
+      <c r="AK11" s="63"/>
+      <c r="AL11" s="57"/>
+      <c r="AM11" s="23"/>
     </row>
     <row r="12" spans="1:39" ht="14">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="32"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="46"/>
       <c r="K12" s="33"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="37"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="37"/>
-      <c r="AK12" s="38"/>
-      <c r="AL12" s="39"/>
-      <c r="AM12" s="40"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="57"/>
+      <c r="AI12" s="57"/>
+      <c r="AJ12" s="57"/>
+      <c r="AK12" s="63"/>
+      <c r="AL12" s="57"/>
+      <c r="AM12" s="23"/>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="48"/>
-      <c r="AK13" s="34"/>
-      <c r="AL13" s="34"/>
-      <c r="AM13" s="34"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="47"/>
+      <c r="AJ13" s="47"/>
+      <c r="AK13" s="64"/>
+      <c r="AL13" s="64"/>
+      <c r="AM13" s="21"/>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="48"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="48"/>
-      <c r="AK14" s="34"/>
-      <c r="AL14" s="34"/>
-      <c r="AM14" s="34"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
+      <c r="AD14" s="47"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="47"/>
+      <c r="AJ14" s="47"/>
+      <c r="AK14" s="64"/>
+      <c r="AL14" s="64"/>
+      <c r="AM14" s="21"/>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="48"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="48"/>
-      <c r="AH15" s="48"/>
-      <c r="AI15" s="48"/>
-      <c r="AJ15" s="48"/>
-      <c r="AK15" s="34"/>
-      <c r="AL15" s="34"/>
-      <c r="AM15" s="34"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="47"/>
+      <c r="AE15" s="47"/>
+      <c r="AF15" s="47"/>
+      <c r="AG15" s="47"/>
+      <c r="AH15" s="47"/>
+      <c r="AI15" s="47"/>
+      <c r="AJ15" s="47"/>
+      <c r="AK15" s="64"/>
+      <c r="AL15" s="64"/>
+      <c r="AM15" s="21"/>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="48"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="48"/>
-      <c r="AI16" s="48"/>
-      <c r="AJ16" s="48"/>
-      <c r="AK16" s="34"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="34"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="47"/>
+      <c r="AD16" s="47"/>
+      <c r="AE16" s="47"/>
+      <c r="AF16" s="47"/>
+      <c r="AG16" s="47"/>
+      <c r="AH16" s="47"/>
+      <c r="AI16" s="47"/>
+      <c r="AJ16" s="47"/>
+      <c r="AK16" s="64"/>
+      <c r="AL16" s="64"/>
+      <c r="AM16" s="21"/>
     </row>
     <row r="17" spans="1:39">
       <c r="A17" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="48"/>
-      <c r="AI17" s="48"/>
-      <c r="AJ17" s="48"/>
-      <c r="AK17" s="34"/>
-      <c r="AL17" s="34"/>
-      <c r="AM17" s="34"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="47"/>
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="47"/>
+      <c r="AI17" s="47"/>
+      <c r="AJ17" s="47"/>
+      <c r="AK17" s="64"/>
+      <c r="AL17" s="64"/>
+      <c r="AM17" s="21"/>
     </row>
     <row r="18" spans="1:39">
       <c r="A18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="48"/>
-      <c r="AI18" s="48"/>
-      <c r="AJ18" s="48"/>
-      <c r="AK18" s="34"/>
-      <c r="AL18" s="34"/>
-      <c r="AM18" s="34"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="47"/>
+      <c r="AE18" s="47"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="47"/>
+      <c r="AH18" s="47"/>
+      <c r="AI18" s="47"/>
+      <c r="AJ18" s="47"/>
+      <c r="AK18" s="64"/>
+      <c r="AL18" s="64"/>
+      <c r="AM18" s="21"/>
     </row>
     <row r="19" spans="1:39">
       <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="48"/>
-      <c r="AE19" s="48"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="48"/>
-      <c r="AI19" s="48"/>
-      <c r="AJ19" s="48"/>
-      <c r="AK19" s="34"/>
-      <c r="AL19" s="34"/>
-      <c r="AM19" s="34"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="47"/>
+      <c r="AH19" s="47"/>
+      <c r="AI19" s="47"/>
+      <c r="AJ19" s="47"/>
+      <c r="AK19" s="64"/>
+      <c r="AL19" s="64"/>
+      <c r="AM19" s="21"/>
     </row>
     <row r="20" spans="1:39">
       <c r="A20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="48"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="48"/>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="48"/>
-      <c r="AK20" s="34"/>
-      <c r="AL20" s="34"/>
-      <c r="AM20" s="34"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="47"/>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="47"/>
+      <c r="AJ20" s="47"/>
+      <c r="AK20" s="64"/>
+      <c r="AL20" s="64"/>
+      <c r="AM20" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/public/xls_template/masterlist.xlsx
+++ b/public/xls_template/masterlist.xlsx
@@ -172,9 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_);\(#,##0.00\)"/>
   </numFmts>
@@ -307,22 +305,13 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -336,9 +325,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -356,9 +342,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -389,78 +372,79 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -867,894 +851,894 @@
   </sheetPr>
   <dimension ref="A1:AM20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AN22" sqref="AN22"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:AL1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="0" hidden="1"/>
-    <col min="3" max="3" width="8.83203125" style="5"/>
-    <col min="5" max="5" width="8.83203125" style="3"/>
-    <col min="6" max="6" width="8.83203125" style="4"/>
-    <col min="8" max="8" width="8.83203125" style="42"/>
-    <col min="9" max="9" width="8.83203125" style="41"/>
-    <col min="10" max="10" width="8.83203125" style="48"/>
-    <col min="11" max="12" width="8.83203125" style="35"/>
-    <col min="13" max="13" width="8.83203125" style="5"/>
-    <col min="14" max="18" width="8.83203125" style="41"/>
-    <col min="19" max="21" width="8.83203125" style="53"/>
-    <col min="22" max="22" width="8.83203125" style="48"/>
-    <col min="23" max="27" width="0" style="5" hidden="1"/>
-    <col min="28" max="36" width="8.83203125" style="48"/>
-    <col min="37" max="38" width="8.83203125" style="37"/>
+    <col min="3" max="3" width="8.83203125" style="3"/>
+    <col min="5" max="5" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="8.83203125" style="2"/>
+    <col min="8" max="8" width="8.83203125" style="32"/>
+    <col min="9" max="9" width="8.83203125" style="56"/>
+    <col min="10" max="10" width="8.83203125" style="52"/>
+    <col min="11" max="12" width="8.83203125" style="30"/>
+    <col min="13" max="13" width="8.83203125" style="3"/>
+    <col min="14" max="18" width="8.83203125" style="56"/>
+    <col min="19" max="21" width="8.83203125" style="51"/>
+    <col min="22" max="22" width="8.83203125" style="52"/>
+    <col min="23" max="27" width="0" style="52" hidden="1"/>
+    <col min="28" max="36" width="8.83203125" style="52"/>
+    <col min="37" max="38" width="8.83203125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="15">
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
       <c r="M1"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1"/>
-      <c r="X1"/>
-      <c r="Y1"/>
-      <c r="Z1"/>
-      <c r="AA1"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
     </row>
     <row r="2" spans="1:39" ht="15">
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
       <c r="M2"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
     </row>
     <row r="3" spans="1:39" ht="12.75" customHeight="1">
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="31" t="s">
         <v>2</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
       <c r="M3"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
     </row>
     <row r="4" spans="1:39" ht="14.25" customHeight="1">
       <c r="E4"/>
       <c r="F4"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
       <c r="M4"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="37"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
     </row>
     <row r="5" spans="1:39">
       <c r="E5"/>
       <c r="F5"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
       <c r="M5"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="37"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="32"/>
     </row>
     <row r="6" spans="1:39">
       <c r="E6"/>
       <c r="F6"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
       <c r="M6"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="37"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="32"/>
     </row>
     <row r="7" spans="1:39" ht="15">
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="31" t="s">
         <v>3</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
       <c r="M7"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="59"/>
-      <c r="AK7" s="60"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="37"/>
+      <c r="AK7" s="38"/>
     </row>
     <row r="8" spans="1:39" ht="12.75" customHeight="1">
       <c r="E8"/>
       <c r="F8"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
       <c r="M8"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="2" t="s">
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="1" t="s">
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="1" t="s">
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="61"/>
-      <c r="AM8" s="7"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="40"/>
+      <c r="AI8" s="40"/>
+      <c r="AJ8" s="40"/>
+      <c r="AK8" s="40"/>
+      <c r="AL8" s="41"/>
+      <c r="AM8" s="4"/>
     </row>
     <row r="9" spans="1:39" ht="24" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="49" t="s">
+      <c r="K9" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="L9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="38" t="s">
+      <c r="O9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="38" t="s">
+      <c r="P9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q9" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R9" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="38" t="s">
+      <c r="S9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="T9" s="54" t="s">
+      <c r="T9" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="U9" s="54" t="s">
+      <c r="U9" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="V9" s="54" t="s">
+      <c r="V9" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="13" t="s">
+      <c r="W9" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="X9" s="13" t="s">
+      <c r="X9" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="Y9" s="13" t="s">
+      <c r="Y9" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="Z9" s="13" t="s">
+      <c r="Z9" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="AA9" s="13" t="s">
+      <c r="AA9" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="AB9" s="56" t="s">
+      <c r="AB9" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="AC9" s="56" t="s">
+      <c r="AC9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AD9" s="58" t="s">
+      <c r="AD9" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="AE9" s="58" t="s">
+      <c r="AE9" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="AF9" s="56" t="s">
+      <c r="AF9" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="AG9" s="56" t="s">
+      <c r="AG9" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AH9" s="58" t="s">
+      <c r="AH9" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="AI9" s="56" t="s">
+      <c r="AI9" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AJ9" s="56" t="s">
+      <c r="AJ9" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="AK9" s="58" t="s">
+      <c r="AK9" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="AL9" s="62" t="s">
+      <c r="AL9" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="AM9" s="14" t="s">
+      <c r="AM9" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="57"/>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="57"/>
-      <c r="AH10" s="57"/>
-      <c r="AI10" s="57"/>
-      <c r="AJ10" s="57"/>
-      <c r="AK10" s="63"/>
-      <c r="AL10" s="57"/>
-      <c r="AM10" s="23"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="47"/>
+      <c r="AH10" s="47"/>
+      <c r="AI10" s="47"/>
+      <c r="AJ10" s="47"/>
+      <c r="AK10" s="48"/>
+      <c r="AL10" s="47"/>
+      <c r="AM10" s="18"/>
     </row>
     <row r="11" spans="1:39">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="57"/>
-      <c r="AG11" s="57"/>
-      <c r="AH11" s="57"/>
-      <c r="AI11" s="57"/>
-      <c r="AJ11" s="57"/>
-      <c r="AK11" s="63"/>
-      <c r="AL11" s="57"/>
-      <c r="AM11" s="23"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47"/>
+      <c r="AD11" s="47"/>
+      <c r="AE11" s="47"/>
+      <c r="AF11" s="47"/>
+      <c r="AG11" s="47"/>
+      <c r="AH11" s="47"/>
+      <c r="AI11" s="47"/>
+      <c r="AJ11" s="47"/>
+      <c r="AK11" s="48"/>
+      <c r="AL11" s="47"/>
+      <c r="AM11" s="18"/>
     </row>
     <row r="12" spans="1:39" ht="14">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="57"/>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="57"/>
-      <c r="AG12" s="57"/>
-      <c r="AH12" s="57"/>
-      <c r="AI12" s="57"/>
-      <c r="AJ12" s="57"/>
-      <c r="AK12" s="63"/>
-      <c r="AL12" s="57"/>
-      <c r="AM12" s="23"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47"/>
+      <c r="AD12" s="47"/>
+      <c r="AE12" s="47"/>
+      <c r="AF12" s="47"/>
+      <c r="AG12" s="47"/>
+      <c r="AH12" s="47"/>
+      <c r="AI12" s="47"/>
+      <c r="AJ12" s="47"/>
+      <c r="AK12" s="48"/>
+      <c r="AL12" s="47"/>
+      <c r="AM12" s="18"/>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="47"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="47"/>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="64"/>
-      <c r="AL13" s="64"/>
-      <c r="AM13" s="21"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
+      <c r="AH13" s="50"/>
+      <c r="AI13" s="50"/>
+      <c r="AJ13" s="50"/>
+      <c r="AK13" s="35"/>
+      <c r="AL13" s="35"/>
+      <c r="AM13" s="17"/>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="47"/>
-      <c r="AH14" s="47"/>
-      <c r="AI14" s="47"/>
-      <c r="AJ14" s="47"/>
-      <c r="AK14" s="64"/>
-      <c r="AL14" s="64"/>
-      <c r="AM14" s="21"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
+      <c r="AH14" s="50"/>
+      <c r="AI14" s="50"/>
+      <c r="AJ14" s="50"/>
+      <c r="AK14" s="35"/>
+      <c r="AL14" s="35"/>
+      <c r="AM14" s="17"/>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="47"/>
-      <c r="AC15" s="47"/>
-      <c r="AD15" s="47"/>
-      <c r="AE15" s="47"/>
-      <c r="AF15" s="47"/>
-      <c r="AG15" s="47"/>
-      <c r="AH15" s="47"/>
-      <c r="AI15" s="47"/>
-      <c r="AJ15" s="47"/>
-      <c r="AK15" s="64"/>
-      <c r="AL15" s="64"/>
-      <c r="AM15" s="21"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="50"/>
+      <c r="AI15" s="50"/>
+      <c r="AJ15" s="50"/>
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="35"/>
+      <c r="AM15" s="17"/>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="47"/>
-      <c r="AC16" s="47"/>
-      <c r="AD16" s="47"/>
-      <c r="AE16" s="47"/>
-      <c r="AF16" s="47"/>
-      <c r="AG16" s="47"/>
-      <c r="AH16" s="47"/>
-      <c r="AI16" s="47"/>
-      <c r="AJ16" s="47"/>
-      <c r="AK16" s="64"/>
-      <c r="AL16" s="64"/>
-      <c r="AM16" s="21"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
+      <c r="AH16" s="50"/>
+      <c r="AI16" s="50"/>
+      <c r="AJ16" s="50"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="17"/>
     </row>
     <row r="17" spans="1:39">
       <c r="A17" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="47"/>
-      <c r="AG17" s="47"/>
-      <c r="AH17" s="47"/>
-      <c r="AI17" s="47"/>
-      <c r="AJ17" s="47"/>
-      <c r="AK17" s="64"/>
-      <c r="AL17" s="64"/>
-      <c r="AM17" s="21"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="50"/>
+      <c r="AI17" s="50"/>
+      <c r="AJ17" s="50"/>
+      <c r="AK17" s="35"/>
+      <c r="AL17" s="35"/>
+      <c r="AM17" s="17"/>
     </row>
     <row r="18" spans="1:39">
       <c r="A18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="47"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="47"/>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="47"/>
-      <c r="AJ18" s="47"/>
-      <c r="AK18" s="64"/>
-      <c r="AL18" s="64"/>
-      <c r="AM18" s="21"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="50"/>
+      <c r="AI18" s="50"/>
+      <c r="AJ18" s="50"/>
+      <c r="AK18" s="35"/>
+      <c r="AL18" s="35"/>
+      <c r="AM18" s="17"/>
     </row>
     <row r="19" spans="1:39">
       <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="47"/>
-      <c r="AJ19" s="47"/>
-      <c r="AK19" s="64"/>
-      <c r="AL19" s="64"/>
-      <c r="AM19" s="21"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="50"/>
+      <c r="AD19" s="50"/>
+      <c r="AE19" s="50"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
+      <c r="AH19" s="50"/>
+      <c r="AI19" s="50"/>
+      <c r="AJ19" s="50"/>
+      <c r="AK19" s="35"/>
+      <c r="AL19" s="35"/>
+      <c r="AM19" s="17"/>
     </row>
     <row r="20" spans="1:39">
       <c r="A20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="47"/>
-      <c r="AH20" s="47"/>
-      <c r="AI20" s="47"/>
-      <c r="AJ20" s="47"/>
-      <c r="AK20" s="64"/>
-      <c r="AL20" s="64"/>
-      <c r="AM20" s="21"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="50"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="50"/>
+      <c r="AE20" s="50"/>
+      <c r="AF20" s="50"/>
+      <c r="AG20" s="50"/>
+      <c r="AH20" s="50"/>
+      <c r="AI20" s="50"/>
+      <c r="AJ20" s="50"/>
+      <c r="AK20" s="35"/>
+      <c r="AL20" s="35"/>
+      <c r="AM20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/public/xls_template/masterlist.xlsx
+++ b/public/xls_template/masterlist.xlsx
@@ -479,8 +479,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -539,7 +539,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -612,8 +612,8 @@
   </sheetPr>
   <dimension ref="A1:AM21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -624,7 +624,7 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.6377551020408"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.6173469387755"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.4183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="15.9744897959184"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.1785714285714"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.1938775510204"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="3" width="12.5"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.1122448979592"/>
@@ -649,7 +649,10 @@
     <col collapsed="false" hidden="false" max="34" min="34" style="1" width="8.8265306122449"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="12.3673469387755"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="13.1938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="37" style="0" width="8.8265306122449"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="9.30612244897959"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.1122448979592"/>
+    <col collapsed="false" hidden="false" max="40" min="39" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1242,7 +1245,7 @@
       <c r="AJ13" s="46"/>
       <c r="AK13" s="44"/>
       <c r="AL13" s="44"/>
-      <c r="AM13" s="34"/>
+      <c r="AM13" s="42"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -1284,7 +1287,7 @@
       <c r="AJ14" s="46"/>
       <c r="AK14" s="44"/>
       <c r="AL14" s="44"/>
-      <c r="AM14" s="34"/>
+      <c r="AM14" s="42"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -1326,7 +1329,7 @@
       <c r="AJ15" s="46"/>
       <c r="AK15" s="44"/>
       <c r="AL15" s="44"/>
-      <c r="AM15" s="34"/>
+      <c r="AM15" s="42"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -1368,7 +1371,7 @@
       <c r="AJ16" s="46"/>
       <c r="AK16" s="44"/>
       <c r="AL16" s="44"/>
-      <c r="AM16" s="34"/>
+      <c r="AM16" s="42"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -1410,7 +1413,7 @@
       <c r="AJ17" s="46"/>
       <c r="AK17" s="44"/>
       <c r="AL17" s="44"/>
-      <c r="AM17" s="34"/>
+      <c r="AM17" s="42"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -1452,7 +1455,7 @@
       <c r="AJ18" s="46"/>
       <c r="AK18" s="44"/>
       <c r="AL18" s="44"/>
-      <c r="AM18" s="34"/>
+      <c r="AM18" s="42"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -1494,7 +1497,7 @@
       <c r="AJ19" s="46"/>
       <c r="AK19" s="44"/>
       <c r="AL19" s="44"/>
-      <c r="AM19" s="34"/>
+      <c r="AM19" s="42"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -1536,16 +1539,13 @@
       <c r="AJ20" s="46"/>
       <c r="AK20" s="44"/>
       <c r="AL20" s="44"/>
-      <c r="AM20" s="34"/>
+      <c r="AM20" s="42"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="34" t="n">
-        <f aca="false">SUM(H10:H20)</f>
-        <v>0</v>
-      </c>
+      <c r="H21" s="34"/>
       <c r="I21" s="50"/>
       <c r="J21" s="42"/>
       <c r="N21" s="50"/>

--- a/public/xls_template/masterlist.xlsx
+++ b/public/xls_template/masterlist.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>PAYROLL PERIOD:</t>
   </si>
@@ -56,22 +56,22 @@
     <t>POSITION</t>
   </si>
   <si>
+    <t>TAX STATUS</t>
+  </si>
+  <si>
+    <t>No. of Days</t>
+  </si>
+  <si>
+    <t>DAY OFF</t>
+  </si>
+  <si>
     <t>MONTHLY RATE</t>
   </si>
   <si>
-    <t>SEMI MONTHLY</t>
-  </si>
-  <si>
-    <t>DAILY  RATE</t>
-  </si>
-  <si>
-    <t>TAX STATUS</t>
-  </si>
-  <si>
-    <t>No. of Days</t>
-  </si>
-  <si>
-    <t>DAY OFF</t>
+    <t>SEMI-MONTHLY</t>
+  </si>
+  <si>
+    <t>DAILY RATE</t>
   </si>
   <si>
     <t>TOTAL ALLOWANCE</t>
@@ -164,7 +164,16 @@
     <t>11</t>
   </si>
   <si>
-    <t>Total:</t>
+    <t>GRAND TOTAL:</t>
+  </si>
+  <si>
+    <t>PREPARED BY:</t>
+  </si>
+  <si>
+    <t>CHECKED BY:</t>
+  </si>
+  <si>
+    <t>APPROVED BY:</t>
   </si>
 </sst>
 </file>
@@ -322,7 +331,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -519,8 +528,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -528,6 +537,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -539,7 +552,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -610,10 +623,10 @@
     <tabColor rgb="FFC00000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM21"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -628,9 +641,9 @@
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.1938775510204"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="3" width="12.5"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.1122448979592"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.43877551020408"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="10.969387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="8.8265306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.7244897959184"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.4489795918367"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="12.0867346938776"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="3" width="12.6377551020408"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="3" width="11.1122448979592"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="3" width="13.0561224489796"/>
@@ -1545,9 +1558,18 @@
       <c r="A21" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="42"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
       <c r="N21" s="50"/>
       <c r="O21" s="50"/>
       <c r="P21" s="50"/>
@@ -1574,15 +1596,27 @@
       <c r="AK21" s="34"/>
       <c r="AL21" s="34"/>
     </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="L29" s="52" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="P8:R8"/>
     <mergeCell ref="T8:V8"/>
     <mergeCell ref="AB8:AK8"/>
+    <mergeCell ref="A21:J21"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1.1" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/public/xls_template/masterlist.xlsx
+++ b/public/xls_template/masterlist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="562"/>
+    <workbookView xWindow="1680" yWindow="1680" windowWidth="23920" windowHeight="13840" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE REPORT" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>REG. OVERTIME</t>
   </si>
   <si>
-    <t>SUNDAY OVERTIME</t>
-  </si>
-  <si>
     <t>LEGAL HOL.</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>AREA 3</t>
+  </si>
+  <si>
+    <t>RESTDAY PAY</t>
   </si>
 </sst>
 </file>
@@ -276,15 +276,6 @@
   </cellStyleXfs>
   <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -404,12 +395,21 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="TableStyleLight1" xfId="2" customBuiltin="1"/>
+    <cellStyle name="TableStyleLight1" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -812,921 +812,921 @@
   <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="0" hidden="1"/>
-    <col min="3" max="4" width="8.83203125" style="4"/>
-    <col min="5" max="5" width="8.83203125" style="5"/>
-    <col min="6" max="7" width="8.83203125" style="4"/>
-    <col min="9" max="9" width="8.83203125" style="6"/>
-    <col min="10" max="10" width="8.83203125" style="4"/>
-    <col min="11" max="13" width="8.83203125" style="45"/>
-    <col min="14" max="18" width="8.83203125" style="46"/>
-    <col min="19" max="21" width="8.83203125" style="47"/>
-    <col min="22" max="22" width="8.83203125" style="45"/>
-    <col min="23" max="27" width="0" style="45" hidden="1"/>
-    <col min="28" max="36" width="8.83203125" style="45"/>
-    <col min="37" max="38" width="8.83203125" style="8"/>
+    <col min="3" max="4" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="8.83203125" style="2"/>
+    <col min="6" max="7" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="8.83203125" style="3"/>
+    <col min="10" max="10" width="8.83203125" style="1"/>
+    <col min="11" max="13" width="8.83203125" style="42"/>
+    <col min="14" max="18" width="8.83203125" style="43"/>
+    <col min="19" max="21" width="8.83203125" style="44"/>
+    <col min="22" max="22" width="8.83203125" style="42"/>
+    <col min="23" max="27" width="0" style="42" hidden="1"/>
+    <col min="28" max="36" width="8.83203125" style="42"/>
+    <col min="37" max="38" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="15">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1"/>
-      <c r="E1" s="4"/>
+      <c r="E1" s="1"/>
       <c r="F1"/>
       <c r="G1"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
     </row>
     <row r="2" spans="1:39" ht="15">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="1"/>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
     </row>
     <row r="3" spans="1:39" ht="12.75" customHeight="1">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D3"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="1"/>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
     </row>
     <row r="4" spans="1:39" ht="14.25" customHeight="1">
       <c r="C4"/>
       <c r="D4"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="1"/>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
     </row>
     <row r="5" spans="1:39">
       <c r="C5"/>
       <c r="D5"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="1"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
     </row>
     <row r="6" spans="1:39">
       <c r="C6"/>
       <c r="D6"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="1"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
     </row>
     <row r="7" spans="1:39" ht="15">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D7"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="1"/>
       <c r="F7"/>
       <c r="G7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="10"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="7"/>
     </row>
     <row r="8" spans="1:39" ht="12.75" customHeight="1">
       <c r="C8"/>
       <c r="D8"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="1"/>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="3" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="2" t="s">
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="2" t="s">
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="13"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="46"/>
+      <c r="AH8" s="46"/>
+      <c r="AI8" s="46"/>
+      <c r="AJ8" s="46"/>
+      <c r="AK8" s="46"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="10"/>
     </row>
     <row r="9" spans="1:39" ht="24" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="43" t="s">
+      <c r="L9" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="43" t="s">
+      <c r="M9" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="N9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="O9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="P9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="17" t="s">
+      <c r="R9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="17" t="s">
+      <c r="S9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="17" t="s">
+      <c r="T9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="U9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="U9" s="18" t="s">
+      <c r="V9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="V9" s="18" t="s">
+      <c r="W9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="19" t="s">
+      <c r="X9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="X9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC9" s="19" t="s">
+      <c r="AD9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AD9" s="20" t="s">
+      <c r="AE9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AE9" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF9" s="19" t="s">
+      <c r="AG9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="AG9" s="19" t="s">
+      <c r="AH9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AH9" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI9" s="19" t="s">
+      <c r="AJ9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="AJ9" s="19" t="s">
+      <c r="AK9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AK9" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL9" s="21" t="s">
+      <c r="AM9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AM9" s="22" t="s">
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="32"/>
-      <c r="AD10" s="32"/>
-      <c r="AE10" s="32"/>
-      <c r="AF10" s="32"/>
-      <c r="AG10" s="32"/>
-      <c r="AH10" s="32"/>
-      <c r="AI10" s="32"/>
-      <c r="AJ10" s="32"/>
-      <c r="AK10" s="33"/>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="34"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="29"/>
+      <c r="AI10" s="29"/>
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="29"/>
+      <c r="AM10" s="31"/>
     </row>
     <row r="11" spans="1:39">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="32"/>
-      <c r="AG11" s="32"/>
-      <c r="AH11" s="32"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="32"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="34"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="29"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="29"/>
+      <c r="AM11" s="31"/>
     </row>
     <row r="12" spans="1:39" ht="14">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="32"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="32"/>
-      <c r="AG12" s="32"/>
-      <c r="AH12" s="32"/>
-      <c r="AI12" s="32"/>
-      <c r="AJ12" s="32"/>
-      <c r="AK12" s="33"/>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="34"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="31"/>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="41"/>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="41"/>
-      <c r="AJ13" s="41"/>
-      <c r="AK13" s="39"/>
-      <c r="AL13" s="39"/>
-      <c r="AM13" s="37"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="38"/>
+      <c r="AH13" s="38"/>
+      <c r="AI13" s="38"/>
+      <c r="AJ13" s="38"/>
+      <c r="AK13" s="36"/>
+      <c r="AL13" s="36"/>
+      <c r="AM13" s="34"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="41"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="41"/>
-      <c r="AI14" s="41"/>
-      <c r="AJ14" s="41"/>
-      <c r="AK14" s="39"/>
-      <c r="AL14" s="39"/>
-      <c r="AM14" s="37"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="38"/>
+      <c r="AI14" s="38"/>
+      <c r="AJ14" s="38"/>
+      <c r="AK14" s="36"/>
+      <c r="AL14" s="36"/>
+      <c r="AM14" s="34"/>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="41"/>
-      <c r="AE15" s="41"/>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="41"/>
-      <c r="AH15" s="41"/>
-      <c r="AI15" s="41"/>
-      <c r="AJ15" s="41"/>
-      <c r="AK15" s="39"/>
-      <c r="AL15" s="39"/>
-      <c r="AM15" s="37"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="38"/>
+      <c r="AI15" s="38"/>
+      <c r="AJ15" s="38"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="34"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="41"/>
-      <c r="AE16" s="41"/>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="41"/>
-      <c r="AJ16" s="41"/>
-      <c r="AK16" s="39"/>
-      <c r="AL16" s="39"/>
-      <c r="AM16" s="37"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="38"/>
+      <c r="AJ16" s="38"/>
+      <c r="AK16" s="36"/>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="34"/>
     </row>
     <row r="17" spans="1:39">
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="41"/>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="41"/>
-      <c r="AE17" s="41"/>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="41"/>
-      <c r="AH17" s="41"/>
-      <c r="AI17" s="41"/>
-      <c r="AJ17" s="41"/>
-      <c r="AK17" s="39"/>
-      <c r="AL17" s="39"/>
-      <c r="AM17" s="37"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="36"/>
+      <c r="AL17" s="36"/>
+      <c r="AM17" s="34"/>
     </row>
     <row r="18" spans="1:39">
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="41"/>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="41"/>
-      <c r="AH18" s="41"/>
-      <c r="AI18" s="41"/>
-      <c r="AJ18" s="41"/>
-      <c r="AK18" s="39"/>
-      <c r="AL18" s="39"/>
-      <c r="AM18" s="37"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="36"/>
+      <c r="AL18" s="36"/>
+      <c r="AM18" s="34"/>
     </row>
     <row r="19" spans="1:39">
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="41"/>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="41"/>
-      <c r="AE19" s="41"/>
-      <c r="AF19" s="41"/>
-      <c r="AG19" s="41"/>
-      <c r="AH19" s="41"/>
-      <c r="AI19" s="41"/>
-      <c r="AJ19" s="41"/>
-      <c r="AK19" s="39"/>
-      <c r="AL19" s="39"/>
-      <c r="AM19" s="37"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
+      <c r="AJ19" s="38"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="36"/>
+      <c r="AM19" s="34"/>
     </row>
     <row r="20" spans="1:39">
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="41"/>
-      <c r="AC20" s="41"/>
-      <c r="AD20" s="41"/>
-      <c r="AE20" s="41"/>
-      <c r="AF20" s="41"/>
-      <c r="AG20" s="41"/>
-      <c r="AH20" s="41"/>
-      <c r="AI20" s="41"/>
-      <c r="AJ20" s="41"/>
-      <c r="AK20" s="39"/>
-      <c r="AL20" s="39"/>
-      <c r="AM20" s="37"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38"/>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="38"/>
+      <c r="AI20" s="38"/>
+      <c r="AJ20" s="38"/>
+      <c r="AK20" s="36"/>
+      <c r="AL20" s="36"/>
+      <c r="AM20" s="34"/>
     </row>
     <row r="21" spans="1:39">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="41"/>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="41"/>
-      <c r="AH21" s="41"/>
-      <c r="AI21" s="41"/>
-      <c r="AJ21" s="41"/>
-      <c r="AK21" s="39"/>
-      <c r="AL21" s="39"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="38"/>
+      <c r="AJ21" s="38"/>
+      <c r="AK21" s="36"/>
+      <c r="AL21" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/public/xls_template/masterlist.xlsx
+++ b/public/xls_template/masterlist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1680" windowWidth="23920" windowHeight="13840" tabRatio="562"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14960" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE REPORT" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>PAYROLL PERIOD:</t>
   </si>
@@ -63,9 +63,6 @@
     <t>TAX STATUS</t>
   </si>
   <si>
-    <t>No. of Days</t>
-  </si>
-  <si>
     <t>DAY OFF</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
   </si>
   <si>
     <t>DAILY RATE</t>
-  </si>
-  <si>
-    <t>TOTAL ALLOWANCE</t>
   </si>
   <si>
     <t>REG. OVERTIME</t>
@@ -128,13 +122,58 @@
     <t>NET PAY</t>
   </si>
   <si>
-    <t>PAYROLL GROUP</t>
-  </si>
-  <si>
     <t>AREA 3</t>
   </si>
   <si>
     <t>RESTDAY PAY</t>
+  </si>
+  <si>
+    <t>RATE</t>
+  </si>
+  <si>
+    <t>NO. OF DAYS</t>
+  </si>
+  <si>
+    <t>RESTDAY ATTENDANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTDAY </t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>TOTAL HRS.</t>
+  </si>
+  <si>
+    <t>NIGHT DIFF</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>PAGIBIG</t>
+  </si>
+  <si>
+    <t>PHILHEALTH</t>
+  </si>
+  <si>
+    <t>OVERTIME</t>
+  </si>
+  <si>
+    <t>TOTAL HRS</t>
+  </si>
+  <si>
+    <t>COLA</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>ALLOWANCE</t>
+  </si>
+  <si>
+    <t>OTHER ALLOWANCE</t>
   </si>
 </sst>
 </file>
@@ -145,7 +184,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_);\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -202,6 +241,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -217,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -241,14 +287,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="hair">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="hair">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -260,12 +308,103 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="hair">
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="hair">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -274,7 +413,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,68 +441,136 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -375,36 +582,101 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -809,30 +1081,38 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:AM21"/>
+  <dimension ref="A1:AS21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="AQ29" sqref="AQ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="0" hidden="1"/>
-    <col min="3" max="4" width="8.83203125" style="1"/>
-    <col min="5" max="5" width="8.83203125" style="2"/>
-    <col min="6" max="7" width="8.83203125" style="1"/>
-    <col min="9" max="9" width="8.83203125" style="3"/>
-    <col min="10" max="10" width="8.83203125" style="1"/>
-    <col min="11" max="13" width="8.83203125" style="42"/>
-    <col min="14" max="18" width="8.83203125" style="43"/>
-    <col min="19" max="21" width="8.83203125" style="44"/>
-    <col min="22" max="22" width="8.83203125" style="42"/>
-    <col min="23" max="27" width="0" style="42" hidden="1"/>
-    <col min="28" max="36" width="8.83203125" style="42"/>
-    <col min="37" max="38" width="8.83203125" style="5"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" style="21" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="21" customWidth="1"/>
+    <col min="13" max="15" width="15.5" style="21" customWidth="1"/>
+    <col min="16" max="17" width="17.1640625" style="22" customWidth="1"/>
+    <col min="18" max="18" width="8.83203125" style="22"/>
+    <col min="19" max="19" width="15.6640625" style="22" customWidth="1"/>
+    <col min="20" max="24" width="8.83203125" style="22"/>
+    <col min="25" max="27" width="8.83203125" style="23"/>
+    <col min="28" max="28" width="8.83203125" style="21"/>
+    <col min="29" max="33" width="0" style="21" hidden="1"/>
+    <col min="34" max="42" width="8.83203125" style="21"/>
+    <col min="43" max="43" width="20" style="5" customWidth="1"/>
+    <col min="44" max="44" width="17.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15">
+    <row r="1" spans="1:45" ht="15">
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
@@ -868,8 +1148,14 @@
       <c r="AH1" s="5"/>
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
     </row>
-    <row r="2" spans="1:39" ht="15">
+    <row r="2" spans="1:45" ht="15">
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
@@ -905,8 +1191,14 @@
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
     </row>
-    <row r="3" spans="1:39" ht="12.75" customHeight="1">
+    <row r="3" spans="1:45" ht="12.75" customHeight="1">
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
@@ -942,8 +1234,14 @@
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
     </row>
-    <row r="4" spans="1:39" ht="14.25" customHeight="1">
+    <row r="4" spans="1:45" ht="14.25" customHeight="1">
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" s="1"/>
@@ -977,78 +1275,116 @@
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:45">
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5" s="1"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
+      <c r="I5" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="51"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="29"/>
+      <c r="S5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" s="29"/>
+      <c r="U5" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" s="68"/>
+      <c r="W5" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="X5" s="37"/>
       <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
+      <c r="Z5" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="44"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
+      <c r="AH5" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="43"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="44"/>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:45">
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6" s="1"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="38"/>
       <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="46"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="41"/>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="41"/>
+      <c r="AN6" s="41"/>
+      <c r="AO6" s="41"/>
+      <c r="AP6" s="41"/>
+      <c r="AQ6" s="48"/>
     </row>
-    <row r="7" spans="1:39" ht="15">
+    <row r="7" spans="1:45" ht="15">
       <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1056,684 +1392,797 @@
       <c r="E7" s="1"/>
       <c r="F7"/>
       <c r="G7"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="38"/>
       <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="46"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="7"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM7" s="25"/>
+      <c r="AN7" s="25"/>
+      <c r="AO7" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP7" s="25"/>
+      <c r="AQ7" s="25"/>
     </row>
-    <row r="8" spans="1:39" ht="12.75" customHeight="1">
+    <row r="8" spans="1:45" ht="12.75" customHeight="1">
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" s="1"/>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="46"/>
-      <c r="AH8" s="46"/>
-      <c r="AI8" s="46"/>
-      <c r="AJ8" s="46"/>
-      <c r="AK8" s="46"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="10"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="25"/>
+      <c r="AI8" s="25"/>
+      <c r="AJ8" s="25"/>
+      <c r="AK8" s="25"/>
+      <c r="AL8" s="25"/>
+      <c r="AM8" s="25"/>
+      <c r="AN8" s="25"/>
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="25"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:39" ht="24" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="1:45" ht="24" customHeight="1">
+      <c r="A9" s="52"/>
+      <c r="B9" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="K9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="L9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="M9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="40" t="s">
+      <c r="N9" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="R9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="S9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="X9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" s="14" t="s">
+      <c r="Y9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="14" t="s">
+      <c r="Z9" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="S9" s="14" t="s">
+      <c r="AA9" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="T9" s="15" t="s">
+      <c r="AB9" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="U9" s="15" t="s">
+      <c r="AC9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="V9" s="15" t="s">
+      <c r="AD9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="W9" s="16" t="s">
+      <c r="AJ9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="X9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC9" s="16" t="s">
+      <c r="AK9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AD9" s="17" t="s">
+      <c r="AM9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AE9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF9" s="16" t="s">
+      <c r="AN9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AG9" s="16" t="s">
+      <c r="AP9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AH9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI9" s="16" t="s">
+      <c r="AQ9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AJ9" s="16" t="s">
+      <c r="AS9" s="13"/>
+    </row>
+    <row r="10" spans="1:45">
+      <c r="A10" s="78"/>
+      <c r="B10" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="AK9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL9" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM9" s="19" t="s">
-        <v>35</v>
-      </c>
+      <c r="C10" s="80"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="62"/>
     </row>
-    <row r="10" spans="1:39">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="29"/>
-      <c r="AH10" s="29"/>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="29"/>
-      <c r="AK10" s="30"/>
-      <c r="AL10" s="29"/>
-      <c r="AM10" s="31"/>
+    <row r="11" spans="1:45">
+      <c r="A11" s="84"/>
+      <c r="B11" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="62"/>
     </row>
-    <row r="11" spans="1:39">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="29"/>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="29"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="30"/>
-      <c r="AL11" s="29"/>
-      <c r="AM11" s="31"/>
+    <row r="12" spans="1:45" ht="14">
+      <c r="A12" s="84"/>
+      <c r="B12" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="89"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="74"/>
+      <c r="AA12" s="74"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="62"/>
     </row>
-    <row r="12" spans="1:39" ht="14">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="29"/>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="29"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="30"/>
-      <c r="AL12" s="29"/>
-      <c r="AM12" s="31"/>
+    <row r="13" spans="1:45">
+      <c r="A13" s="91"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="7"/>
+      <c r="AR13" s="7"/>
+      <c r="AS13" s="62"/>
     </row>
-    <row r="13" spans="1:39">
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="38"/>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="38"/>
-      <c r="AK13" s="36"/>
-      <c r="AL13" s="36"/>
-      <c r="AM13" s="34"/>
+    <row r="14" spans="1:45">
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="7"/>
+      <c r="AR14" s="7"/>
+      <c r="AS14" s="62"/>
     </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="38"/>
-      <c r="AJ14" s="38"/>
-      <c r="AK14" s="36"/>
-      <c r="AL14" s="36"/>
-      <c r="AM14" s="34"/>
+    <row r="15" spans="1:45">
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="60"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="27"/>
+      <c r="AN15" s="27"/>
+      <c r="AO15" s="27"/>
+      <c r="AP15" s="27"/>
+      <c r="AQ15" s="58"/>
+      <c r="AR15" s="58"/>
+      <c r="AS15" s="56"/>
     </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="38"/>
-      <c r="AH15" s="38"/>
-      <c r="AI15" s="38"/>
-      <c r="AJ15" s="38"/>
-      <c r="AK15" s="36"/>
-      <c r="AL15" s="36"/>
-      <c r="AM15" s="34"/>
+    <row r="16" spans="1:45">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="18"/>
+      <c r="AJ16" s="18"/>
+      <c r="AK16" s="18"/>
+      <c r="AL16" s="18"/>
+      <c r="AM16" s="18"/>
+      <c r="AN16" s="18"/>
+      <c r="AO16" s="18"/>
+      <c r="AP16" s="18"/>
+      <c r="AQ16" s="16"/>
+      <c r="AR16" s="16"/>
+      <c r="AS16" s="14"/>
     </row>
-    <row r="16" spans="1:39">
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="38"/>
-      <c r="AI16" s="38"/>
-      <c r="AJ16" s="38"/>
-      <c r="AK16" s="36"/>
-      <c r="AL16" s="36"/>
-      <c r="AM16" s="34"/>
+    <row r="17" spans="1:45">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18"/>
+      <c r="AK17" s="18"/>
+      <c r="AL17" s="18"/>
+      <c r="AM17" s="18"/>
+      <c r="AN17" s="18"/>
+      <c r="AO17" s="18"/>
+      <c r="AP17" s="18"/>
+      <c r="AQ17" s="16"/>
+      <c r="AR17" s="16"/>
+      <c r="AS17" s="14"/>
     </row>
-    <row r="17" spans="1:39">
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38"/>
-      <c r="AI17" s="38"/>
-      <c r="AJ17" s="38"/>
-      <c r="AK17" s="36"/>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="34"/>
+    <row r="18" spans="1:45">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="18"/>
+      <c r="AP18" s="18"/>
+      <c r="AQ18" s="16"/>
+      <c r="AR18" s="16"/>
+      <c r="AS18" s="14"/>
     </row>
-    <row r="18" spans="1:39">
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="38"/>
-      <c r="AH18" s="38"/>
-      <c r="AI18" s="38"/>
-      <c r="AJ18" s="38"/>
-      <c r="AK18" s="36"/>
-      <c r="AL18" s="36"/>
-      <c r="AM18" s="34"/>
+    <row r="19" spans="1:45">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="18"/>
+      <c r="AO19" s="18"/>
+      <c r="AP19" s="18"/>
+      <c r="AQ19" s="16"/>
+      <c r="AR19" s="16"/>
+      <c r="AS19" s="14"/>
     </row>
-    <row r="19" spans="1:39">
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="38"/>
-      <c r="AI19" s="38"/>
-      <c r="AJ19" s="38"/>
-      <c r="AK19" s="36"/>
-      <c r="AL19" s="36"/>
-      <c r="AM19" s="34"/>
+    <row r="20" spans="1:45">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="18"/>
+      <c r="AM20" s="18"/>
+      <c r="AN20" s="18"/>
+      <c r="AO20" s="18"/>
+      <c r="AP20" s="18"/>
+      <c r="AQ20" s="16"/>
+      <c r="AR20" s="16"/>
+      <c r="AS20" s="14"/>
     </row>
-    <row r="20" spans="1:39">
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="38"/>
-      <c r="AF20" s="38"/>
-      <c r="AG20" s="38"/>
-      <c r="AH20" s="38"/>
-      <c r="AI20" s="38"/>
-      <c r="AJ20" s="38"/>
-      <c r="AK20" s="36"/>
-      <c r="AL20" s="36"/>
-      <c r="AM20" s="34"/>
-    </row>
-    <row r="21" spans="1:39">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="38"/>
-      <c r="AF21" s="38"/>
-      <c r="AG21" s="38"/>
-      <c r="AH21" s="38"/>
-      <c r="AI21" s="38"/>
-      <c r="AJ21" s="38"/>
-      <c r="AK21" s="36"/>
-      <c r="AL21" s="36"/>
+    <row r="21" spans="1:45">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="18"/>
+      <c r="AM21" s="18"/>
+      <c r="AN21" s="18"/>
+      <c r="AO21" s="18"/>
+      <c r="AP21" s="18"/>
+      <c r="AQ21" s="16"/>
+      <c r="AR21" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="AB8:AK8"/>
+  <mergeCells count="13">
+    <mergeCell ref="K5:M8"/>
+    <mergeCell ref="I5:J8"/>
+    <mergeCell ref="U5:V8"/>
+    <mergeCell ref="AH5:AQ6"/>
+    <mergeCell ref="AH7:AK8"/>
+    <mergeCell ref="AL7:AN8"/>
+    <mergeCell ref="AO7:AQ8"/>
+    <mergeCell ref="Q5:R8"/>
+    <mergeCell ref="N5:P8"/>
     <mergeCell ref="A21:J21"/>
+    <mergeCell ref="S5:T8"/>
+    <mergeCell ref="W5:X8"/>
+    <mergeCell ref="Z5:AB8"/>
   </mergeCells>
   <pageMargins left="1.1000000000000001" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/public/xls_template/masterlist.xlsx
+++ b/public/xls_template/masterlist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14960" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="14820" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE REPORT" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>PAYROLL PERIOD:</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>DAILY RATE</t>
-  </si>
-  <si>
-    <t>REG. OVERTIME</t>
   </si>
   <si>
     <t>LEGAL HOL.</t>
@@ -161,9 +158,6 @@
     <t>OVERTIME</t>
   </si>
   <si>
-    <t>TOTAL HRS</t>
-  </si>
-  <si>
     <t>COLA</t>
   </si>
   <si>
@@ -174,6 +168,24 @@
   </si>
   <si>
     <t>OTHER ALLOWANCE</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Regular Holiday</t>
+  </si>
+  <si>
+    <t>Special Holiday</t>
+  </si>
+  <si>
+    <t>Rest Day</t>
+  </si>
+  <si>
+    <t>Total Hrs</t>
+  </si>
+  <si>
+    <t>Amount</t>
   </si>
 </sst>
 </file>
@@ -481,86 +493,8 @@
     <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -604,79 +538,157 @@
     <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1081,10 +1093,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:AS21"/>
+  <dimension ref="A1:AY21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ29" sqref="AQ29"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1100,19 +1112,20 @@
     <col min="11" max="11" width="16.83203125" style="21" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" style="21" customWidth="1"/>
     <col min="13" max="15" width="15.5" style="21" customWidth="1"/>
-    <col min="16" max="17" width="17.1640625" style="22" customWidth="1"/>
-    <col min="18" max="18" width="8.83203125" style="22"/>
-    <col min="19" max="19" width="15.6640625" style="22" customWidth="1"/>
-    <col min="20" max="24" width="8.83203125" style="22"/>
-    <col min="25" max="27" width="8.83203125" style="23"/>
-    <col min="28" max="28" width="8.83203125" style="21"/>
-    <col min="29" max="33" width="0" style="21" hidden="1"/>
-    <col min="34" max="42" width="8.83203125" style="21"/>
-    <col min="43" max="43" width="20" style="5" customWidth="1"/>
-    <col min="44" max="44" width="17.5" style="5" customWidth="1"/>
+    <col min="16" max="16" width="17.1640625" style="22" customWidth="1"/>
+    <col min="17" max="17" width="10" style="22" customWidth="1"/>
+    <col min="18" max="24" width="8.83203125" style="22"/>
+    <col min="25" max="25" width="15.6640625" style="22" customWidth="1"/>
+    <col min="26" max="30" width="8.83203125" style="22"/>
+    <col min="31" max="33" width="8.83203125" style="23"/>
+    <col min="34" max="34" width="8.83203125" style="21"/>
+    <col min="35" max="39" width="0" style="21" hidden="1"/>
+    <col min="40" max="48" width="8.83203125" style="21"/>
+    <col min="49" max="49" width="20" style="5" customWidth="1"/>
+    <col min="50" max="50" width="17.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="15">
+    <row r="1" spans="1:51" ht="15">
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1154,8 +1167,14 @@
       <c r="AN1" s="5"/>
       <c r="AO1" s="5"/>
       <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
     </row>
-    <row r="2" spans="1:45" ht="15">
+    <row r="2" spans="1:51" ht="15">
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1197,8 +1216,14 @@
       <c r="AN2" s="5"/>
       <c r="AO2" s="5"/>
       <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
     </row>
-    <row r="3" spans="1:45" ht="12.75" customHeight="1">
+    <row r="3" spans="1:51" ht="12.75" customHeight="1">
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1240,8 +1265,14 @@
       <c r="AN3" s="5"/>
       <c r="AO3" s="5"/>
       <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
     </row>
-    <row r="4" spans="1:45" ht="14.25" customHeight="1">
+    <row r="4" spans="1:51" ht="14.25" customHeight="1">
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" s="1"/>
@@ -1281,110 +1312,128 @@
       <c r="AN4" s="5"/>
       <c r="AO4" s="5"/>
       <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:51">
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5" s="1"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="I5" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="28" t="s">
+      <c r="I5" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="51"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R5" s="29"/>
-      <c r="S5" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="T5" s="29"/>
-      <c r="U5" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="V5" s="68"/>
-      <c r="W5" s="36" t="s">
+      <c r="J5" s="70"/>
+      <c r="K5" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="69"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="42" t="s">
+      <c r="AD5" s="87"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="42" t="s">
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="AI5" s="43"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="43"/>
-      <c r="AL5" s="43"/>
-      <c r="AM5" s="43"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="44"/>
+      <c r="AO5" s="79"/>
+      <c r="AP5" s="79"/>
+      <c r="AQ5" s="79"/>
+      <c r="AR5" s="79"/>
+      <c r="AS5" s="79"/>
+      <c r="AT5" s="79"/>
+      <c r="AU5" s="79"/>
+      <c r="AV5" s="79"/>
+      <c r="AW5" s="80"/>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:51">
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6" s="1"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="88"/>
+      <c r="AD6" s="89"/>
       <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="41"/>
-      <c r="AJ6" s="41"/>
-      <c r="AK6" s="41"/>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="41"/>
-      <c r="AN6" s="41"/>
-      <c r="AO6" s="41"/>
-      <c r="AP6" s="41"/>
-      <c r="AQ6" s="48"/>
+      <c r="AF6" s="92"/>
+      <c r="AG6" s="93"/>
+      <c r="AH6" s="94"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="81"/>
+      <c r="AO6" s="82"/>
+      <c r="AP6" s="82"/>
+      <c r="AQ6" s="82"/>
+      <c r="AR6" s="82"/>
+      <c r="AS6" s="82"/>
+      <c r="AT6" s="82"/>
+      <c r="AU6" s="82"/>
+      <c r="AV6" s="82"/>
+      <c r="AW6" s="83"/>
     </row>
-    <row r="7" spans="1:45" ht="15">
+    <row r="7" spans="1:51" ht="15">
       <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1392,119 +1441,139 @@
       <c r="E7" s="1"/>
       <c r="F7"/>
       <c r="G7"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="V7" s="77"/>
+      <c r="W7" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="77"/>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="88"/>
+      <c r="AD7" s="89"/>
       <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="25" t="s">
+      <c r="AF7" s="92"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="94"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO7" s="84"/>
+      <c r="AP7" s="84"/>
+      <c r="AQ7" s="84"/>
+      <c r="AR7" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="AI7" s="25"/>
-      <c r="AJ7" s="25"/>
-      <c r="AK7" s="25"/>
-      <c r="AL7" s="25" t="s">
+      <c r="AS7" s="84"/>
+      <c r="AT7" s="84"/>
+      <c r="AU7" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="AM7" s="25"/>
-      <c r="AN7" s="25"/>
-      <c r="AO7" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP7" s="25"/>
-      <c r="AQ7" s="25"/>
+      <c r="AV7" s="84"/>
+      <c r="AW7" s="84"/>
     </row>
-    <row r="8" spans="1:45" ht="12.75" customHeight="1">
+    <row r="8" spans="1:51" ht="12.75" customHeight="1">
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" s="1"/>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="68"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="25"/>
-      <c r="AI8" s="25"/>
-      <c r="AJ8" s="25"/>
-      <c r="AK8" s="25"/>
-      <c r="AL8" s="25"/>
-      <c r="AM8" s="25"/>
-      <c r="AN8" s="25"/>
-      <c r="AO8" s="25"/>
-      <c r="AP8" s="25"/>
-      <c r="AQ8" s="25"/>
-      <c r="AR8" s="9"/>
-      <c r="AS8" s="10"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="76"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="90"/>
+      <c r="AD8" s="91"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="81"/>
+      <c r="AG8" s="82"/>
+      <c r="AH8" s="83"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="84"/>
+      <c r="AO8" s="84"/>
+      <c r="AP8" s="84"/>
+      <c r="AQ8" s="84"/>
+      <c r="AR8" s="84"/>
+      <c r="AS8" s="84"/>
+      <c r="AT8" s="84"/>
+      <c r="AU8" s="84"/>
+      <c r="AV8" s="84"/>
+      <c r="AW8" s="84"/>
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="24" customHeight="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53" t="s">
+    <row r="9" spans="1:51" ht="24" customHeight="1">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="55" t="s">
+      <c r="I9" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="K9" s="11" t="s">
@@ -1517,137 +1586,155 @@
         <v>17</v>
       </c>
       <c r="N9" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O9" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="P9" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="Q9" s="11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="R9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="T9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="V9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="W9" s="11" t="s">
+      <c r="AD9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="AE9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Y9" s="11" t="s">
+      <c r="AF9" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="Z9" s="67" t="s">
+      <c r="AG9" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AA9" s="67" t="s">
+      <c r="AH9" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="AB9" s="67" t="s">
+      <c r="AI9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AC9" s="11" t="s">
+      <c r="AJ9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AD9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI9" s="11" t="s">
+      <c r="AP9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AJ9" s="24" t="s">
+      <c r="AQ9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AK9" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL9" s="11" t="s">
+      <c r="AS9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AM9" s="11" t="s">
+      <c r="AT9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AN9" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO9" s="11" t="s">
+      <c r="AV9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AP9" s="11" t="s">
+      <c r="AW9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AQ9" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR9" s="12" t="s">
+      <c r="AY9" s="13"/>
+    </row>
+    <row r="10" spans="1:51">
+      <c r="A10" s="51"/>
+      <c r="B10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="AS9" s="13"/>
-    </row>
-    <row r="10" spans="1:45">
-      <c r="A10" s="78"/>
-      <c r="B10" s="79" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="72"/>
-      <c r="Z10" s="72"/>
-      <c r="AA10" s="72"/>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="45"/>
+      <c r="AG10" s="45"/>
+      <c r="AH10" s="46"/>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
       <c r="AK10" s="6"/>
@@ -1656,47 +1743,53 @@
       <c r="AN10" s="6"/>
       <c r="AO10" s="6"/>
       <c r="AP10" s="6"/>
-      <c r="AQ10" s="7"/>
+      <c r="AQ10" s="6"/>
       <c r="AR10" s="6"/>
-      <c r="AS10" s="62"/>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="6"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="6"/>
+      <c r="AY10" s="36"/>
     </row>
-    <row r="11" spans="1:45">
-      <c r="A11" s="84"/>
-      <c r="B11" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
+    <row r="11" spans="1:51">
+      <c r="A11" s="57"/>
+      <c r="B11" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="69"/>
-      <c r="W11" s="69"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="75"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="6"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="47"/>
+      <c r="AF11" s="47"/>
+      <c r="AG11" s="47"/>
+      <c r="AH11" s="48"/>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
       <c r="AK11" s="6"/>
@@ -1705,47 +1798,53 @@
       <c r="AN11" s="6"/>
       <c r="AO11" s="6"/>
       <c r="AP11" s="6"/>
-      <c r="AQ11" s="7"/>
+      <c r="AQ11" s="6"/>
       <c r="AR11" s="6"/>
-      <c r="AS11" s="62"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="6"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="6"/>
+      <c r="AY11" s="36"/>
     </row>
-    <row r="12" spans="1:45" ht="14">
-      <c r="A12" s="84"/>
-      <c r="B12" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
+    <row r="12" spans="1:51" ht="14">
+      <c r="A12" s="57"/>
+      <c r="B12" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="74"/>
-      <c r="AB12" s="75"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="47"/>
+      <c r="AF12" s="47"/>
+      <c r="AG12" s="47"/>
+      <c r="AH12" s="48"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
       <c r="AK12" s="6"/>
@@ -1754,45 +1853,51 @@
       <c r="AN12" s="6"/>
       <c r="AO12" s="6"/>
       <c r="AP12" s="6"/>
-      <c r="AQ12" s="7"/>
+      <c r="AQ12" s="6"/>
       <c r="AR12" s="6"/>
-      <c r="AS12" s="62"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="6"/>
+      <c r="AY12" s="36"/>
     </row>
-    <row r="13" spans="1:45">
-      <c r="A13" s="91"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="77"/>
+    <row r="13" spans="1:51">
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="50"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="76"/>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="77"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="50"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
       <c r="AK13" s="6"/>
@@ -1801,44 +1906,50 @@
       <c r="AN13" s="6"/>
       <c r="AO13" s="6"/>
       <c r="AP13" s="6"/>
-      <c r="AQ13" s="7"/>
-      <c r="AR13" s="7"/>
-      <c r="AS13" s="62"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
+      <c r="AW13" s="7"/>
+      <c r="AX13" s="7"/>
+      <c r="AY13" s="36"/>
     </row>
-    <row r="14" spans="1:45">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
+    <row r="14" spans="1:51">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="65"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="40"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
@@ -1848,56 +1959,68 @@
       <c r="AN14" s="6"/>
       <c r="AO14" s="6"/>
       <c r="AP14" s="6"/>
-      <c r="AQ14" s="7"/>
-      <c r="AR14" s="7"/>
-      <c r="AS14" s="62"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="6"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="6"/>
+      <c r="AW14" s="7"/>
+      <c r="AX14" s="7"/>
+      <c r="AY14" s="36"/>
     </row>
-    <row r="15" spans="1:45">
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="27"/>
-      <c r="AK15" s="27"/>
-      <c r="AL15" s="27"/>
-      <c r="AM15" s="27"/>
-      <c r="AN15" s="27"/>
-      <c r="AO15" s="27"/>
-      <c r="AP15" s="27"/>
-      <c r="AQ15" s="58"/>
-      <c r="AR15" s="58"/>
-      <c r="AS15" s="56"/>
+    <row r="15" spans="1:51">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="25"/>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="25"/>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="25"/>
+      <c r="AU15" s="25"/>
+      <c r="AV15" s="25"/>
+      <c r="AW15" s="32"/>
+      <c r="AX15" s="32"/>
+      <c r="AY15" s="30"/>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:51">
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="15"/>
@@ -1920,15 +2043,15 @@
       <c r="V16" s="17"/>
       <c r="W16" s="17"/>
       <c r="X16" s="17"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
-      <c r="AG16" s="18"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
       <c r="AH16" s="18"/>
       <c r="AI16" s="18"/>
       <c r="AJ16" s="18"/>
@@ -1938,11 +2061,17 @@
       <c r="AN16" s="18"/>
       <c r="AO16" s="18"/>
       <c r="AP16" s="18"/>
-      <c r="AQ16" s="16"/>
-      <c r="AR16" s="16"/>
-      <c r="AS16" s="14"/>
+      <c r="AQ16" s="18"/>
+      <c r="AR16" s="18"/>
+      <c r="AS16" s="18"/>
+      <c r="AT16" s="18"/>
+      <c r="AU16" s="18"/>
+      <c r="AV16" s="18"/>
+      <c r="AW16" s="16"/>
+      <c r="AX16" s="16"/>
+      <c r="AY16" s="14"/>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:51">
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
@@ -1965,15 +2094,15 @@
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
       <c r="X17" s="17"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
-      <c r="AG17" s="18"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
       <c r="AH17" s="18"/>
       <c r="AI17" s="18"/>
       <c r="AJ17" s="18"/>
@@ -1983,11 +2112,17 @@
       <c r="AN17" s="18"/>
       <c r="AO17" s="18"/>
       <c r="AP17" s="18"/>
-      <c r="AQ17" s="16"/>
-      <c r="AR17" s="16"/>
-      <c r="AS17" s="14"/>
+      <c r="AQ17" s="18"/>
+      <c r="AR17" s="18"/>
+      <c r="AS17" s="18"/>
+      <c r="AT17" s="18"/>
+      <c r="AU17" s="18"/>
+      <c r="AV17" s="18"/>
+      <c r="AW17" s="16"/>
+      <c r="AX17" s="16"/>
+      <c r="AY17" s="14"/>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:51">
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="15"/>
@@ -2010,15 +2145,15 @@
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
       <c r="X18" s="17"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
-      <c r="AG18" s="18"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
       <c r="AH18" s="18"/>
       <c r="AI18" s="18"/>
       <c r="AJ18" s="18"/>
@@ -2028,11 +2163,17 @@
       <c r="AN18" s="18"/>
       <c r="AO18" s="18"/>
       <c r="AP18" s="18"/>
-      <c r="AQ18" s="16"/>
-      <c r="AR18" s="16"/>
-      <c r="AS18" s="14"/>
+      <c r="AQ18" s="18"/>
+      <c r="AR18" s="18"/>
+      <c r="AS18" s="18"/>
+      <c r="AT18" s="18"/>
+      <c r="AU18" s="18"/>
+      <c r="AV18" s="18"/>
+      <c r="AW18" s="16"/>
+      <c r="AX18" s="16"/>
+      <c r="AY18" s="14"/>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:51">
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="15"/>
@@ -2055,15 +2196,15 @@
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
       <c r="X19" s="17"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
-      <c r="AG19" s="18"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
       <c r="AH19" s="18"/>
       <c r="AI19" s="18"/>
       <c r="AJ19" s="18"/>
@@ -2073,11 +2214,17 @@
       <c r="AN19" s="18"/>
       <c r="AO19" s="18"/>
       <c r="AP19" s="18"/>
-      <c r="AQ19" s="16"/>
-      <c r="AR19" s="16"/>
-      <c r="AS19" s="14"/>
+      <c r="AQ19" s="18"/>
+      <c r="AR19" s="18"/>
+      <c r="AS19" s="18"/>
+      <c r="AT19" s="18"/>
+      <c r="AU19" s="18"/>
+      <c r="AV19" s="18"/>
+      <c r="AW19" s="16"/>
+      <c r="AX19" s="16"/>
+      <c r="AY19" s="14"/>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:51">
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="15"/>
@@ -2100,15 +2247,15 @@
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
       <c r="X20" s="17"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="18"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
       <c r="AH20" s="18"/>
       <c r="AI20" s="18"/>
       <c r="AJ20" s="18"/>
@@ -2118,21 +2265,27 @@
       <c r="AN20" s="18"/>
       <c r="AO20" s="18"/>
       <c r="AP20" s="18"/>
-      <c r="AQ20" s="16"/>
-      <c r="AR20" s="16"/>
-      <c r="AS20" s="14"/>
+      <c r="AQ20" s="18"/>
+      <c r="AR20" s="18"/>
+      <c r="AS20" s="18"/>
+      <c r="AT20" s="18"/>
+      <c r="AU20" s="18"/>
+      <c r="AV20" s="18"/>
+      <c r="AW20" s="16"/>
+      <c r="AX20" s="16"/>
+      <c r="AY20" s="14"/>
     </row>
-    <row r="21" spans="1:45">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+    <row r="21" spans="1:51">
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
@@ -2147,15 +2300,15 @@
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
       <c r="X21" s="17"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="18"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
       <c r="AH21" s="18"/>
       <c r="AI21" s="18"/>
       <c r="AJ21" s="18"/>
@@ -2165,27 +2318,37 @@
       <c r="AN21" s="18"/>
       <c r="AO21" s="18"/>
       <c r="AP21" s="18"/>
-      <c r="AQ21" s="16"/>
-      <c r="AR21" s="16"/>
+      <c r="AQ21" s="18"/>
+      <c r="AR21" s="18"/>
+      <c r="AS21" s="18"/>
+      <c r="AT21" s="18"/>
+      <c r="AU21" s="18"/>
+      <c r="AV21" s="18"/>
+      <c r="AW21" s="16"/>
+      <c r="AX21" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="17">
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="Y5:Z8"/>
+    <mergeCell ref="AC5:AD8"/>
+    <mergeCell ref="AF5:AH8"/>
+    <mergeCell ref="Q7:R8"/>
+    <mergeCell ref="S7:T8"/>
+    <mergeCell ref="U7:V8"/>
+    <mergeCell ref="W7:X8"/>
+    <mergeCell ref="Q5:X6"/>
     <mergeCell ref="K5:M8"/>
     <mergeCell ref="I5:J8"/>
-    <mergeCell ref="U5:V8"/>
-    <mergeCell ref="AH5:AQ6"/>
-    <mergeCell ref="AH7:AK8"/>
-    <mergeCell ref="AL7:AN8"/>
-    <mergeCell ref="AO7:AQ8"/>
-    <mergeCell ref="Q5:R8"/>
+    <mergeCell ref="AA5:AB8"/>
+    <mergeCell ref="AN5:AW6"/>
+    <mergeCell ref="AN7:AQ8"/>
+    <mergeCell ref="AR7:AT8"/>
+    <mergeCell ref="AU7:AW8"/>
     <mergeCell ref="N5:P8"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="S5:T8"/>
-    <mergeCell ref="W5:X8"/>
-    <mergeCell ref="Z5:AB8"/>
   </mergeCells>
   <pageMargins left="1.1000000000000001" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/public/xls_template/masterlist.xlsx
+++ b/public/xls_template/masterlist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="14820" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE REPORT" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>PAYROLL PERIOD:</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>Regular Holiday Rest Day</t>
+  </si>
+  <si>
+    <t>Special Holiday Rest Day</t>
   </si>
 </sst>
 </file>
@@ -1093,10 +1099,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:AY21"/>
+  <dimension ref="A1:BC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1114,18 +1120,21 @@
     <col min="13" max="15" width="15.5" style="21" customWidth="1"/>
     <col min="16" max="16" width="17.1640625" style="22" customWidth="1"/>
     <col min="17" max="17" width="10" style="22" customWidth="1"/>
-    <col min="18" max="24" width="8.83203125" style="22"/>
-    <col min="25" max="25" width="15.6640625" style="22" customWidth="1"/>
-    <col min="26" max="30" width="8.83203125" style="22"/>
-    <col min="31" max="33" width="8.83203125" style="23"/>
-    <col min="34" max="34" width="8.83203125" style="21"/>
-    <col min="35" max="39" width="0" style="21" hidden="1"/>
-    <col min="40" max="48" width="8.83203125" style="21"/>
-    <col min="49" max="49" width="20" style="5" customWidth="1"/>
-    <col min="50" max="50" width="17.5" style="5" customWidth="1"/>
+    <col min="18" max="25" width="8.83203125" style="22"/>
+    <col min="26" max="26" width="13" style="22" customWidth="1"/>
+    <col min="27" max="27" width="8.83203125" style="22"/>
+    <col min="28" max="28" width="11.5" style="22" customWidth="1"/>
+    <col min="29" max="29" width="15.6640625" style="22" customWidth="1"/>
+    <col min="30" max="34" width="8.83203125" style="22"/>
+    <col min="35" max="37" width="8.83203125" style="23"/>
+    <col min="38" max="38" width="8.83203125" style="21"/>
+    <col min="39" max="43" width="0" style="21" hidden="1"/>
+    <col min="44" max="52" width="8.83203125" style="21"/>
+    <col min="53" max="53" width="20" style="5" customWidth="1"/>
+    <col min="54" max="54" width="17.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="15">
+    <row r="1" spans="1:55" ht="15">
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1173,8 +1182,12 @@
       <c r="AT1" s="5"/>
       <c r="AU1" s="5"/>
       <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
     </row>
-    <row r="2" spans="1:51" ht="15">
+    <row r="2" spans="1:55" ht="15">
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1222,8 +1235,12 @@
       <c r="AT2" s="5"/>
       <c r="AU2" s="5"/>
       <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="5"/>
+      <c r="AZ2" s="5"/>
     </row>
-    <row r="3" spans="1:51" ht="12.75" customHeight="1">
+    <row r="3" spans="1:55" ht="12.75" customHeight="1">
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1271,8 +1288,12 @@
       <c r="AT3" s="5"/>
       <c r="AU3" s="5"/>
       <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="5"/>
     </row>
-    <row r="4" spans="1:51" ht="14.25" customHeight="1">
+    <row r="4" spans="1:55" ht="14.25" customHeight="1">
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" s="1"/>
@@ -1318,8 +1339,12 @@
       <c r="AT4" s="5"/>
       <c r="AU4" s="5"/>
       <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:55">
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5" s="1"/>
@@ -1348,44 +1373,48 @@
       <c r="U5" s="69"/>
       <c r="V5" s="69"/>
       <c r="W5" s="69"/>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="68" t="s">
+      <c r="X5" s="69"/>
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="69"/>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="77" t="s">
+      <c r="AD5" s="70"/>
+      <c r="AE5" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="86" t="s">
+      <c r="AF5" s="77"/>
+      <c r="AG5" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="78" t="s">
+      <c r="AH5" s="87"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="AG5" s="79"/>
-      <c r="AH5" s="80"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
+      <c r="AK5" s="79"/>
+      <c r="AL5" s="80"/>
       <c r="AM5" s="5"/>
-      <c r="AN5" s="78" t="s">
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="AO5" s="79"/>
-      <c r="AP5" s="79"/>
-      <c r="AQ5" s="79"/>
-      <c r="AR5" s="79"/>
       <c r="AS5" s="79"/>
       <c r="AT5" s="79"/>
       <c r="AU5" s="79"/>
       <c r="AV5" s="79"/>
-      <c r="AW5" s="80"/>
+      <c r="AW5" s="79"/>
+      <c r="AX5" s="79"/>
+      <c r="AY5" s="79"/>
+      <c r="AZ5" s="79"/>
+      <c r="BA5" s="80"/>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:55">
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6" s="1"/>
@@ -1406,34 +1435,38 @@
       <c r="U6" s="72"/>
       <c r="V6" s="72"/>
       <c r="W6" s="72"/>
-      <c r="X6" s="73"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="73"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="88"/>
-      <c r="AD6" s="89"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="92"/>
-      <c r="AG6" s="93"/>
-      <c r="AH6" s="94"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="89"/>
       <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
+      <c r="AJ6" s="92"/>
+      <c r="AK6" s="93"/>
+      <c r="AL6" s="94"/>
       <c r="AM6" s="5"/>
-      <c r="AN6" s="81"/>
-      <c r="AO6" s="82"/>
-      <c r="AP6" s="82"/>
-      <c r="AQ6" s="82"/>
-      <c r="AR6" s="82"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="81"/>
       <c r="AS6" s="82"/>
       <c r="AT6" s="82"/>
       <c r="AU6" s="82"/>
       <c r="AV6" s="82"/>
-      <c r="AW6" s="83"/>
+      <c r="AW6" s="82"/>
+      <c r="AX6" s="82"/>
+      <c r="AY6" s="82"/>
+      <c r="AZ6" s="82"/>
+      <c r="BA6" s="83"/>
     </row>
-    <row r="7" spans="1:51" ht="15">
+    <row r="7" spans="1:55" ht="15">
       <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1465,39 +1498,47 @@
         <v>52</v>
       </c>
       <c r="X7" s="77"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="77"/>
+      <c r="Y7" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z7" s="77"/>
+      <c r="AA7" s="77" t="s">
+        <v>56</v>
+      </c>
       <c r="AB7" s="77"/>
-      <c r="AC7" s="88"/>
-      <c r="AD7" s="89"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="92"/>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="94"/>
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="77"/>
+      <c r="AF7" s="77"/>
+      <c r="AG7" s="88"/>
+      <c r="AH7" s="89"/>
       <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
+      <c r="AJ7" s="92"/>
+      <c r="AK7" s="93"/>
+      <c r="AL7" s="94"/>
       <c r="AM7" s="5"/>
-      <c r="AN7" s="84" t="s">
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="84" t="s">
         <v>41</v>
-      </c>
-      <c r="AO7" s="84"/>
-      <c r="AP7" s="84"/>
-      <c r="AQ7" s="84"/>
-      <c r="AR7" s="84" t="s">
-        <v>42</v>
       </c>
       <c r="AS7" s="84"/>
       <c r="AT7" s="84"/>
-      <c r="AU7" s="84" t="s">
+      <c r="AU7" s="84"/>
+      <c r="AV7" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW7" s="84"/>
+      <c r="AX7" s="84"/>
+      <c r="AY7" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="AV7" s="84"/>
-      <c r="AW7" s="84"/>
+      <c r="AZ7" s="84"/>
+      <c r="BA7" s="84"/>
     </row>
-    <row r="8" spans="1:51" ht="12.75" customHeight="1">
+    <row r="8" spans="1:55" ht="12.75" customHeight="1">
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" s="1"/>
@@ -1519,35 +1560,39 @@
       <c r="V8" s="77"/>
       <c r="W8" s="77"/>
       <c r="X8" s="77"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="76"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
       <c r="AA8" s="77"/>
       <c r="AB8" s="77"/>
-      <c r="AC8" s="90"/>
-      <c r="AD8" s="91"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="81"/>
-      <c r="AG8" s="82"/>
-      <c r="AH8" s="83"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="76"/>
+      <c r="AE8" s="77"/>
+      <c r="AF8" s="77"/>
+      <c r="AG8" s="90"/>
+      <c r="AH8" s="91"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="81"/>
+      <c r="AK8" s="82"/>
+      <c r="AL8" s="83"/>
       <c r="AM8" s="8"/>
-      <c r="AN8" s="84"/>
-      <c r="AO8" s="84"/>
-      <c r="AP8" s="84"/>
-      <c r="AQ8" s="84"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
       <c r="AR8" s="84"/>
       <c r="AS8" s="84"/>
       <c r="AT8" s="84"/>
       <c r="AU8" s="84"/>
       <c r="AV8" s="84"/>
       <c r="AW8" s="84"/>
-      <c r="AX8" s="9"/>
-      <c r="AY8" s="10"/>
+      <c r="AX8" s="84"/>
+      <c r="AY8" s="84"/>
+      <c r="AZ8" s="84"/>
+      <c r="BA8" s="84"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="10"/>
     </row>
-    <row r="9" spans="1:51" ht="24" customHeight="1">
+    <row r="9" spans="1:55" ht="24" customHeight="1">
       <c r="A9" s="26"/>
       <c r="B9" s="27" t="s">
         <v>7</v>
@@ -1619,46 +1664,46 @@
         <v>54</v>
       </c>
       <c r="Y9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="Z9" s="11" t="s">
+      <c r="AD9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AA9" s="11" t="s">
+      <c r="AE9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AB9" s="11" t="s">
+      <c r="AF9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AC9" s="11" t="s">
+      <c r="AG9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AD9" s="11" t="s">
+      <c r="AH9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="11" t="s">
+      <c r="AI9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="41" t="s">
+      <c r="AJ9" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="41" t="s">
+      <c r="AK9" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AH9" s="41" t="s">
+      <c r="AL9" s="41" t="s">
         <v>23</v>
-      </c>
-      <c r="AI9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL9" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="AM9" s="11" t="s">
         <v>24</v>
@@ -1667,38 +1712,50 @@
         <v>24</v>
       </c>
       <c r="AO9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AP9" s="24" t="s">
+      <c r="AT9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AQ9" s="24" t="s">
+      <c r="AU9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AR9" s="11" t="s">
+      <c r="AV9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AS9" s="11" t="s">
+      <c r="AW9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AT9" s="24" t="s">
+      <c r="AX9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AU9" s="11" t="s">
+      <c r="AY9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AV9" s="11" t="s">
+      <c r="AZ9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AW9" s="24" t="s">
+      <c r="BA9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AX9" s="12" t="s">
+      <c r="BB9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AY9" s="13"/>
+      <c r="BC9" s="13"/>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:55">
       <c r="A10" s="51"/>
       <c r="B10" s="52" t="s">
         <v>32</v>
@@ -1731,14 +1788,14 @@
       <c r="AB10" s="44"/>
       <c r="AC10" s="44"/>
       <c r="AD10" s="44"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="45"/>
-      <c r="AG10" s="45"/>
-      <c r="AH10" s="46"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="6"/>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="44"/>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="45"/>
+      <c r="AJ10" s="45"/>
+      <c r="AK10" s="45"/>
+      <c r="AL10" s="46"/>
       <c r="AM10" s="6"/>
       <c r="AN10" s="6"/>
       <c r="AO10" s="6"/>
@@ -1749,11 +1806,15 @@
       <c r="AT10" s="6"/>
       <c r="AU10" s="6"/>
       <c r="AV10" s="6"/>
-      <c r="AW10" s="7"/>
+      <c r="AW10" s="6"/>
       <c r="AX10" s="6"/>
-      <c r="AY10" s="36"/>
+      <c r="AY10" s="6"/>
+      <c r="AZ10" s="6"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="6"/>
+      <c r="BC10" s="36"/>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:55">
       <c r="A11" s="57"/>
       <c r="B11" s="58" t="s">
         <v>32</v>
@@ -1786,14 +1847,14 @@
       <c r="AB11" s="42"/>
       <c r="AC11" s="42"/>
       <c r="AD11" s="42"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="47"/>
-      <c r="AG11" s="47"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="6"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="47"/>
+      <c r="AJ11" s="47"/>
+      <c r="AK11" s="47"/>
+      <c r="AL11" s="48"/>
       <c r="AM11" s="6"/>
       <c r="AN11" s="6"/>
       <c r="AO11" s="6"/>
@@ -1804,11 +1865,15 @@
       <c r="AT11" s="6"/>
       <c r="AU11" s="6"/>
       <c r="AV11" s="6"/>
-      <c r="AW11" s="7"/>
+      <c r="AW11" s="6"/>
       <c r="AX11" s="6"/>
-      <c r="AY11" s="36"/>
+      <c r="AY11" s="6"/>
+      <c r="AZ11" s="6"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="6"/>
+      <c r="BC11" s="36"/>
     </row>
-    <row r="12" spans="1:51" ht="14">
+    <row r="12" spans="1:55" ht="14">
       <c r="A12" s="57"/>
       <c r="B12" s="58" t="s">
         <v>32</v>
@@ -1841,14 +1906,14 @@
       <c r="AB12" s="42"/>
       <c r="AC12" s="42"/>
       <c r="AD12" s="42"/>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="47"/>
-      <c r="AG12" s="47"/>
-      <c r="AH12" s="48"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="47"/>
+      <c r="AJ12" s="47"/>
+      <c r="AK12" s="47"/>
+      <c r="AL12" s="48"/>
       <c r="AM12" s="6"/>
       <c r="AN12" s="6"/>
       <c r="AO12" s="6"/>
@@ -1859,11 +1924,15 @@
       <c r="AT12" s="6"/>
       <c r="AU12" s="6"/>
       <c r="AV12" s="6"/>
-      <c r="AW12" s="7"/>
+      <c r="AW12" s="6"/>
       <c r="AX12" s="6"/>
-      <c r="AY12" s="36"/>
+      <c r="AY12" s="6"/>
+      <c r="AZ12" s="6"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="6"/>
+      <c r="BC12" s="36"/>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:55">
       <c r="A13" s="64"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
@@ -1894,14 +1963,14 @@
       <c r="AB13" s="43"/>
       <c r="AC13" s="43"/>
       <c r="AD13" s="43"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="50"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="43"/>
+      <c r="AH13" s="43"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="49"/>
+      <c r="AK13" s="49"/>
+      <c r="AL13" s="50"/>
       <c r="AM13" s="6"/>
       <c r="AN13" s="6"/>
       <c r="AO13" s="6"/>
@@ -1912,11 +1981,15 @@
       <c r="AT13" s="6"/>
       <c r="AU13" s="6"/>
       <c r="AV13" s="6"/>
-      <c r="AW13" s="7"/>
-      <c r="AX13" s="7"/>
-      <c r="AY13" s="36"/>
+      <c r="AW13" s="6"/>
+      <c r="AX13" s="6"/>
+      <c r="AY13" s="6"/>
+      <c r="AZ13" s="6"/>
+      <c r="BA13" s="7"/>
+      <c r="BB13" s="7"/>
+      <c r="BC13" s="36"/>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:55">
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
       <c r="C14" s="36"/>
@@ -1947,13 +2020,13 @@
       <c r="AB14" s="39"/>
       <c r="AC14" s="39"/>
       <c r="AD14" s="39"/>
-      <c r="AE14" s="40"/>
-      <c r="AF14" s="40"/>
-      <c r="AG14" s="40"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
+      <c r="AE14" s="39"/>
+      <c r="AF14" s="39"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="39"/>
+      <c r="AI14" s="40"/>
+      <c r="AJ14" s="40"/>
+      <c r="AK14" s="40"/>
       <c r="AL14" s="6"/>
       <c r="AM14" s="6"/>
       <c r="AN14" s="6"/>
@@ -1965,11 +2038,15 @@
       <c r="AT14" s="6"/>
       <c r="AU14" s="6"/>
       <c r="AV14" s="6"/>
-      <c r="AW14" s="7"/>
-      <c r="AX14" s="7"/>
-      <c r="AY14" s="36"/>
+      <c r="AW14" s="6"/>
+      <c r="AX14" s="6"/>
+      <c r="AY14" s="6"/>
+      <c r="AZ14" s="6"/>
+      <c r="BA14" s="7"/>
+      <c r="BB14" s="7"/>
+      <c r="BC14" s="36"/>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:55">
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
@@ -1998,13 +2075,13 @@
       <c r="AB15" s="33"/>
       <c r="AC15" s="33"/>
       <c r="AD15" s="33"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="34"/>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="25"/>
-      <c r="AJ15" s="25"/>
-      <c r="AK15" s="25"/>
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="33"/>
+      <c r="AG15" s="33"/>
+      <c r="AH15" s="33"/>
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="34"/>
       <c r="AL15" s="25"/>
       <c r="AM15" s="25"/>
       <c r="AN15" s="25"/>
@@ -2016,11 +2093,15 @@
       <c r="AT15" s="25"/>
       <c r="AU15" s="25"/>
       <c r="AV15" s="25"/>
-      <c r="AW15" s="32"/>
-      <c r="AX15" s="32"/>
-      <c r="AY15" s="30"/>
+      <c r="AW15" s="25"/>
+      <c r="AX15" s="25"/>
+      <c r="AY15" s="25"/>
+      <c r="AZ15" s="25"/>
+      <c r="BA15" s="32"/>
+      <c r="BB15" s="32"/>
+      <c r="BC15" s="30"/>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:55">
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="15"/>
@@ -2049,13 +2130,13 @@
       <c r="AB16" s="17"/>
       <c r="AC16" s="17"/>
       <c r="AD16" s="17"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="18"/>
-      <c r="AI16" s="18"/>
-      <c r="AJ16" s="18"/>
-      <c r="AK16" s="18"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="19"/>
       <c r="AL16" s="18"/>
       <c r="AM16" s="18"/>
       <c r="AN16" s="18"/>
@@ -2067,11 +2148,15 @@
       <c r="AT16" s="18"/>
       <c r="AU16" s="18"/>
       <c r="AV16" s="18"/>
-      <c r="AW16" s="16"/>
-      <c r="AX16" s="16"/>
-      <c r="AY16" s="14"/>
+      <c r="AW16" s="18"/>
+      <c r="AX16" s="18"/>
+      <c r="AY16" s="18"/>
+      <c r="AZ16" s="18"/>
+      <c r="BA16" s="16"/>
+      <c r="BB16" s="16"/>
+      <c r="BC16" s="14"/>
     </row>
-    <row r="17" spans="1:51">
+    <row r="17" spans="1:55">
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
@@ -2100,13 +2185,13 @@
       <c r="AB17" s="17"/>
       <c r="AC17" s="17"/>
       <c r="AD17" s="17"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="18"/>
-      <c r="AI17" s="18"/>
-      <c r="AJ17" s="18"/>
-      <c r="AK17" s="18"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="19"/>
       <c r="AL17" s="18"/>
       <c r="AM17" s="18"/>
       <c r="AN17" s="18"/>
@@ -2118,11 +2203,15 @@
       <c r="AT17" s="18"/>
       <c r="AU17" s="18"/>
       <c r="AV17" s="18"/>
-      <c r="AW17" s="16"/>
-      <c r="AX17" s="16"/>
-      <c r="AY17" s="14"/>
+      <c r="AW17" s="18"/>
+      <c r="AX17" s="18"/>
+      <c r="AY17" s="18"/>
+      <c r="AZ17" s="18"/>
+      <c r="BA17" s="16"/>
+      <c r="BB17" s="16"/>
+      <c r="BC17" s="14"/>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="1:55">
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="15"/>
@@ -2151,13 +2240,13 @@
       <c r="AB18" s="17"/>
       <c r="AC18" s="17"/>
       <c r="AD18" s="17"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="18"/>
-      <c r="AJ18" s="18"/>
-      <c r="AK18" s="18"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="19"/>
       <c r="AL18" s="18"/>
       <c r="AM18" s="18"/>
       <c r="AN18" s="18"/>
@@ -2169,11 +2258,15 @@
       <c r="AT18" s="18"/>
       <c r="AU18" s="18"/>
       <c r="AV18" s="18"/>
-      <c r="AW18" s="16"/>
-      <c r="AX18" s="16"/>
-      <c r="AY18" s="14"/>
+      <c r="AW18" s="18"/>
+      <c r="AX18" s="18"/>
+      <c r="AY18" s="18"/>
+      <c r="AZ18" s="18"/>
+      <c r="BA18" s="16"/>
+      <c r="BB18" s="16"/>
+      <c r="BC18" s="14"/>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:55">
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="15"/>
@@ -2202,13 +2295,13 @@
       <c r="AB19" s="17"/>
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="18"/>
-      <c r="AI19" s="18"/>
-      <c r="AJ19" s="18"/>
-      <c r="AK19" s="18"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
       <c r="AL19" s="18"/>
       <c r="AM19" s="18"/>
       <c r="AN19" s="18"/>
@@ -2220,11 +2313,15 @@
       <c r="AT19" s="18"/>
       <c r="AU19" s="18"/>
       <c r="AV19" s="18"/>
-      <c r="AW19" s="16"/>
-      <c r="AX19" s="16"/>
-      <c r="AY19" s="14"/>
+      <c r="AW19" s="18"/>
+      <c r="AX19" s="18"/>
+      <c r="AY19" s="18"/>
+      <c r="AZ19" s="18"/>
+      <c r="BA19" s="16"/>
+      <c r="BB19" s="16"/>
+      <c r="BC19" s="14"/>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:55">
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="15"/>
@@ -2253,13 +2350,13 @@
       <c r="AB20" s="17"/>
       <c r="AC20" s="17"/>
       <c r="AD20" s="17"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="18"/>
-      <c r="AJ20" s="18"/>
-      <c r="AK20" s="18"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="19"/>
       <c r="AL20" s="18"/>
       <c r="AM20" s="18"/>
       <c r="AN20" s="18"/>
@@ -2271,11 +2368,15 @@
       <c r="AT20" s="18"/>
       <c r="AU20" s="18"/>
       <c r="AV20" s="18"/>
-      <c r="AW20" s="16"/>
-      <c r="AX20" s="16"/>
-      <c r="AY20" s="14"/>
+      <c r="AW20" s="18"/>
+      <c r="AX20" s="18"/>
+      <c r="AY20" s="18"/>
+      <c r="AZ20" s="18"/>
+      <c r="BA20" s="16"/>
+      <c r="BB20" s="16"/>
+      <c r="BC20" s="14"/>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:55">
       <c r="A21" s="85"/>
       <c r="B21" s="85"/>
       <c r="C21" s="85"/>
@@ -2306,13 +2407,13 @@
       <c r="AB21" s="17"/>
       <c r="AC21" s="17"/>
       <c r="AD21" s="17"/>
-      <c r="AE21" s="19"/>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="18"/>
-      <c r="AJ21" s="18"/>
-      <c r="AK21" s="18"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="19"/>
+      <c r="AK21" s="19"/>
       <c r="AL21" s="18"/>
       <c r="AM21" s="18"/>
       <c r="AN21" s="18"/>
@@ -2324,27 +2425,33 @@
       <c r="AT21" s="18"/>
       <c r="AU21" s="18"/>
       <c r="AV21" s="18"/>
-      <c r="AW21" s="16"/>
-      <c r="AX21" s="16"/>
+      <c r="AW21" s="18"/>
+      <c r="AX21" s="18"/>
+      <c r="AY21" s="18"/>
+      <c r="AZ21" s="18"/>
+      <c r="BA21" s="16"/>
+      <c r="BB21" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
     <mergeCell ref="A21:J21"/>
-    <mergeCell ref="Y5:Z8"/>
     <mergeCell ref="AC5:AD8"/>
-    <mergeCell ref="AF5:AH8"/>
+    <mergeCell ref="AG5:AH8"/>
+    <mergeCell ref="AJ5:AL8"/>
     <mergeCell ref="Q7:R8"/>
     <mergeCell ref="S7:T8"/>
     <mergeCell ref="U7:V8"/>
     <mergeCell ref="W7:X8"/>
-    <mergeCell ref="Q5:X6"/>
+    <mergeCell ref="Y7:Z8"/>
+    <mergeCell ref="AA7:AB8"/>
+    <mergeCell ref="Q5:AB6"/>
     <mergeCell ref="K5:M8"/>
     <mergeCell ref="I5:J8"/>
-    <mergeCell ref="AA5:AB8"/>
-    <mergeCell ref="AN5:AW6"/>
-    <mergeCell ref="AN7:AQ8"/>
-    <mergeCell ref="AR7:AT8"/>
-    <mergeCell ref="AU7:AW8"/>
+    <mergeCell ref="AE5:AF8"/>
+    <mergeCell ref="AR5:BA6"/>
+    <mergeCell ref="AR7:AU8"/>
+    <mergeCell ref="AV7:AX8"/>
+    <mergeCell ref="AY7:BA8"/>
     <mergeCell ref="N5:P8"/>
   </mergeCells>
   <pageMargins left="1.1000000000000001" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
